--- a/ExplorerFund/NetValue/fund record.xlsx
+++ b/ExplorerFund/NetValue/fund record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>日期</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>11月份结算</t>
+  </si>
+  <si>
+    <t>小计</t>
   </si>
 </sst>
 </file>
@@ -95,20 +98,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0.0000_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -123,9 +133,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,6 +157,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,14 +231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,7 +262,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,13 +275,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -282,12 +285,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -300,42 +351,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -348,6 +399,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -360,25 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,6 +435,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -408,30 +459,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -439,30 +466,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +544,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -559,15 +571,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -581,192 +584,189 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1116,8 +1116,8 @@
   <sheetPr/>
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1138,7 +1138,7 @@
     <col min="14" max="14" width="11.625" customWidth="1"/>
     <col min="15" max="15" width="11.625" style="1" customWidth="1"/>
     <col min="16" max="16" width="14.375" customWidth="1"/>
-    <col min="17" max="17" width="11.625" customWidth="1"/>
+    <col min="17" max="17" width="13.5" customWidth="1"/>
     <col min="18" max="18" width="13.125" style="1" customWidth="1"/>
     <col min="19" max="19" width="12.75" customWidth="1"/>
   </cols>
@@ -1171,7 +1171,7 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -1203,22 +1203,20 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>42614</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>800000</v>
       </c>
-      <c r="K2" s="3">
-        <v>800000</v>
-      </c>
+      <c r="K2" s="4"/>
       <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="4">
         <v>800000</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="4">
         <v>800000</v>
       </c>
       <c r="O2" s="1">
@@ -1241,42 +1239,42 @@
       <c r="A3">
         <v>20161110</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="9">
         <f>C3+E3+I3-J3</f>
         <v>865702.65</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>198056.94</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>968426.71</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>199219</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <v>500000</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="4">
         <v>500000</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="4">
         <v>865702.65</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="4">
         <v>800000</v>
       </c>
       <c r="O3" s="1">
         <f>B3/800000</f>
         <v>1.0821283125</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="4">
         <v>500000</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="4">
         <v>500000</v>
       </c>
       <c r="R3" s="1">
@@ -1290,45 +1288,45 @@
       <c r="A4">
         <v>20161124</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="9">
         <f t="shared" ref="B4:B7" si="0">C4+E4+G4</f>
         <v>1535233.73</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>178727.34</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>1152116.03</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>204390.36</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <v>250000</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="4">
         <v>230013.17</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="4">
         <v>991786.59</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="4">
         <v>800000</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" ref="O4:O7" si="1">M4/800000</f>
         <v>1.2397332375</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="4">
         <v>893447.14</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="4">
         <v>822018.44</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="5">
         <f>0.0868942855166899+1</f>
         <v>1.08689428551669</v>
       </c>
@@ -1337,24 +1335,24 @@
       </c>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="J5" s="3">
+      <c r="B5" s="9"/>
+      <c r="C5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="J5" s="4">
         <v>100000</v>
       </c>
-      <c r="K5" s="3">
-        <v>95005.27</v>
+      <c r="K5" s="4">
+        <v>92004.78</v>
       </c>
       <c r="L5" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="10"/>
-      <c r="N5" s="3"/>
+      <c r="N5" s="4"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
-      <c r="R5" s="15">
+      <c r="R5" s="5">
         <v>1.0869</v>
       </c>
       <c r="S5" t="s">
@@ -1365,43 +1363,43 @@
       <c r="A6">
         <v>20161125</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="9">
         <f t="shared" si="0"/>
         <v>1906545.18</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>179201.14</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>1171939.74</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>555404.3</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <v>150000</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="4">
         <v>136923.78</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="4">
         <v>1006028.12</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="4">
         <v>800000</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="1"/>
         <v>1.25753515</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="4">
         <v>1050517.06</v>
       </c>
-      <c r="Q6" s="3">
-        <v>958943.22</v>
+      <c r="Q6" s="4">
+        <v>958941.73</v>
       </c>
       <c r="R6" s="1">
         <v>1.0955</v>
@@ -1411,74 +1409,74 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="11">
         <f t="shared" si="0"/>
         <v>2056545.18</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="12">
         <v>179201.14</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7">
+      <c r="D7" s="6"/>
+      <c r="E7" s="12">
         <v>1321939.74</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7">
+      <c r="F7" s="6"/>
+      <c r="G7" s="12">
         <v>555404.3</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="7">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="12">
         <v>1006028.12</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="12">
         <v>800000</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="7">
         <f t="shared" si="1"/>
         <v>1.25753515</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="12">
         <v>1050517.06</v>
       </c>
-      <c r="Q7" s="11">
-        <v>958943.22</v>
-      </c>
-      <c r="R7" s="12">
+      <c r="Q7" s="12">
+        <v>958941.73</v>
+      </c>
+      <c r="R7" s="7">
         <v>1.0955</v>
       </c>
-      <c r="S7" s="5"/>
+      <c r="S7" s="6"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
         <v>20161203</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="9">
         <v>2100736.33</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="4"/>
       <c r="M9" s="13">
-        <v>1026721.04</v>
-      </c>
-      <c r="N9" s="3">
+        <v>1034393.13</v>
+      </c>
+      <c r="N9" s="4">
         <v>800000</v>
       </c>
       <c r="O9" s="1">
-        <v>1.2836</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1074015</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>958943.22</v>
+        <v>1.293</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1066343.2</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>958941.73</v>
       </c>
       <c r="R9" s="1">
         <v>1.111978</v>
@@ -1488,267 +1486,313 @@
       <c r="A10">
         <v>20161217</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="9">
         <v>2192998.92</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>188420.71</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>1234968.89</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>339129.38</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>430479.94</v>
       </c>
       <c r="M10" s="13">
-        <v>1093858.2</v>
-      </c>
-      <c r="N10" s="3">
+        <v>1093859.91</v>
+      </c>
+      <c r="N10" s="4">
         <v>800000</v>
       </c>
       <c r="O10" s="1">
         <v>1.3673</v>
       </c>
-      <c r="P10" s="3">
-        <v>1099140.72</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>958943.22</v>
+      <c r="P10" s="4">
+        <v>1099139.01</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>958941.73</v>
       </c>
       <c r="R10" s="1">
         <v>1.1462</v>
       </c>
     </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
+    <row r="11" spans="1:19">
+      <c r="A11">
+        <v>20161224</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2271012.92</v>
+      </c>
+      <c r="C11" s="4">
+        <v>194985.18</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1251446.61</v>
+      </c>
+      <c r="F11" s="4">
+        <v>374987.39</v>
+      </c>
+      <c r="G11" s="4">
+        <v>449593.74</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
+        <v>320000</v>
+      </c>
+      <c r="K11" s="4">
+        <v>272409.98</v>
+      </c>
+      <c r="M11" s="13">
+        <v>1144503.28</v>
+      </c>
+      <c r="N11" s="4">
+        <v>800000</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1.4306</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1126509.64</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>958941.73</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1.1747</v>
+      </c>
+      <c r="S11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="2:17">
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <f>SUM(K3:K11)</f>
+        <v>1231351.71</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="Q12" s="4">
+        <v>1231351.71</v>
+      </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="8"/>
-      <c r="C26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="8"/>
-      <c r="C27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="8"/>
-      <c r="C28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="8"/>
-      <c r="C29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="8"/>
-      <c r="C30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="8"/>
-      <c r="C31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="8"/>
-      <c r="C32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="8"/>
-      <c r="C33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="8"/>
-      <c r="C34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="8"/>
-      <c r="C35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="8"/>
-      <c r="C36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="8"/>
-      <c r="C37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="8"/>
-      <c r="C38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="8"/>
-      <c r="C39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="8"/>
-      <c r="C40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="8"/>
-      <c r="C41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="8"/>
-      <c r="I42" s="3"/>
+      <c r="B42" s="14"/>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="8"/>
-      <c r="C43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="8"/>
-      <c r="C44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="I44" s="3"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="8"/>
-      <c r="C45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="I45" s="4"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="8"/>
-      <c r="C46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="I46" s="4"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="8"/>
-      <c r="I47" s="3"/>
+      <c r="B47" s="14"/>
+      <c r="I47" s="4"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="8"/>
-      <c r="I48" s="3"/>
+      <c r="B48" s="14"/>
+      <c r="I48" s="4"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="8"/>
-      <c r="I49" s="3"/>
+      <c r="B49" s="14"/>
+      <c r="I49" s="4"/>
     </row>
     <row r="50" spans="2:9">
-      <c r="B50" s="8"/>
-      <c r="C50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="I50" s="4"/>
     </row>
     <row r="52" spans="10:17">
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1759,14 +1803,342 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="4"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="6"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+    </row>
+    <row r="52" spans="6:10">
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -1775,14 +2147,65 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="6" width="13.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/ExplorerFund/NetValue/fund record.xlsx
+++ b/ExplorerFund/NetValue/fund record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19875" windowHeight="9405"/>
+    <workbookView windowWidth="20400" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>日期</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>11月份结算</t>
+  </si>
+  <si>
+    <t>新总值</t>
   </si>
   <si>
     <t>小计</t>
@@ -98,15 +101,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -139,41 +142,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,39 +157,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,17 +178,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,7 +195,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,6 +270,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -285,187 +288,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,56 +479,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -554,6 +507,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -568,11 +565,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,130 +599,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,34 +745,34 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1114,10 +1117,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1522,7 +1525,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11">
-        <v>20161224</v>
+        <v>20161226</v>
       </c>
       <c r="B11" s="9">
         <v>2271012.92</v>
@@ -1568,24 +1571,56 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="9"/>
-      <c r="C12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="I12" s="4"/>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2591012.92</v>
+      </c>
+      <c r="C12" s="4">
+        <v>194985.18</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1251446.61</v>
+      </c>
+      <c r="F12" s="4">
+        <v>694987.39</v>
+      </c>
+      <c r="G12" s="4">
+        <v>449593.74</v>
+      </c>
       <c r="J12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12">
-        <f>SUM(K3:K11)</f>
+        <v>25</v>
+      </c>
+      <c r="K12" s="4">
         <v>1231351.71</v>
       </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="P12" s="10"/>
+      <c r="M12" s="13">
+        <v>1144503.28</v>
+      </c>
+      <c r="N12" s="4">
+        <v>800000</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1.4306</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1446509.64</v>
+      </c>
       <c r="Q12" s="4">
         <v>1231351.71</v>
       </c>
+      <c r="R12" s="1">
+        <v>1.1747</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="9"/>
+      <c r="C17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="9"/>
@@ -1637,10 +1672,9 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="9"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="2:9">
@@ -1735,12 +1769,12 @@
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="14"/>
-      <c r="C41" s="4"/>
-      <c r="E41" s="4"/>
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="14"/>
+      <c r="C42" s="4"/>
+      <c r="E42" s="4"/>
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="2:9">
@@ -1763,8 +1797,6 @@
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="14"/>
-      <c r="C46" s="4"/>
-      <c r="E46" s="4"/>
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="2:9">
@@ -1777,22 +1809,18 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="14"/>
+      <c r="C49" s="4"/>
+      <c r="E49" s="4"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="14"/>
-      <c r="C50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
+    <row r="51" spans="10:17">
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1840,7 +1868,6 @@
       <c r="E3" s="9"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="1"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
@@ -1851,7 +1878,6 @@
       <c r="E4" s="9"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="1"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="5"/>
@@ -1874,7 +1900,6 @@
       <c r="E6" s="9"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="1"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
@@ -1898,7 +1923,6 @@
       <c r="E9" s="9"/>
       <c r="F9" s="13"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="1"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
@@ -1909,7 +1933,6 @@
       <c r="E10" s="9"/>
       <c r="F10" s="13"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="1"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
@@ -1920,7 +1943,6 @@
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="1"/>
       <c r="I11" s="10"/>
       <c r="J11" s="4"/>
     </row>

--- a/ExplorerFund/NetValue/fund record.xlsx
+++ b/ExplorerFund/NetValue/fund record.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="9405"/>
+    <workbookView windowWidth="15975" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -24,10 +22,10 @@
     <t>总权益</t>
   </si>
   <si>
-    <t>大商日盘权益</t>
-  </si>
-  <si>
-    <t>大商夜盘权益</t>
+    <t>大连日盘权益</t>
+  </si>
+  <si>
+    <t>大连夜盘权益</t>
   </si>
   <si>
     <t>上期日盘权益</t>
@@ -102,26 +100,19 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0000_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -136,7 +127,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,10 +184,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,6 +204,14 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,6 +223,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -195,45 +247,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,38 +276,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -288,37 +286,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,13 +412,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,7 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,103 +466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,6 +477,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -493,15 +509,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,28 +531,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,6 +566,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -587,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -736,13 +734,22 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -751,28 +758,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,8 +1117,8 @@
   <sheetPr/>
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30:N31"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1128,9 +1126,9 @@
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="13.75" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="11.625" customWidth="1"/>
@@ -1141,7 +1139,7 @@
     <col min="14" max="14" width="11.625" customWidth="1"/>
     <col min="15" max="15" width="11.625" style="1" customWidth="1"/>
     <col min="16" max="16" width="14.375" customWidth="1"/>
-    <col min="17" max="17" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="14.5" customWidth="1"/>
     <col min="18" max="18" width="13.125" style="1" customWidth="1"/>
     <col min="19" max="19" width="12.75" customWidth="1"/>
   </cols>
@@ -1174,7 +1172,7 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -1206,20 +1204,20 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>42614</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>800000</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="3"/>
       <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="3">
         <v>800000</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="3">
         <v>800000</v>
       </c>
       <c r="O2" s="1">
@@ -1242,42 +1240,42 @@
       <c r="A3">
         <v>20161110</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="4">
         <f>C3+E3+I3-J3</f>
         <v>865702.65</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>198056.94</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>968426.71</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>199219</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>500000</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>500000</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>865702.65</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>800000</v>
       </c>
       <c r="O3" s="1">
         <f>B3/800000</f>
         <v>1.0821283125</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>500000</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>500000</v>
       </c>
       <c r="R3" s="1">
@@ -1291,45 +1289,45 @@
       <c r="A4">
         <v>20161124</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="4">
         <f t="shared" ref="B4:B7" si="0">C4+E4+G4</f>
         <v>1535233.73</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>178727.34</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>1152116.03</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>204390.36</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>250000</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>230013.17</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>991786.59</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>800000</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" ref="O4:O7" si="1">M4/800000</f>
         <v>1.2397332375</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>893447.14</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>822018.44</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="14">
         <f>0.0868942855166899+1</f>
         <v>1.08689428551669</v>
       </c>
@@ -1338,24 +1336,24 @@
       </c>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="9"/>
-      <c r="C5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="J5" s="4">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="J5" s="3">
         <v>100000</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>92004.78</v>
       </c>
       <c r="L5" t="s">
         <v>15</v>
       </c>
       <c r="M5" s="10"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="3"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
-      <c r="R5" s="5">
+      <c r="R5" s="14">
         <v>1.0869</v>
       </c>
       <c r="S5" t="s">
@@ -1366,42 +1364,42 @@
       <c r="A6">
         <v>20161125</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>1906545.18</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>179201.14</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>1171939.74</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>555404.3</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>150000</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>136923.78</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>1006028.12</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>800000</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="1"/>
         <v>1.25753515</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>1050517.06</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>958941.73</v>
       </c>
       <c r="R6" s="1">
@@ -1412,73 +1410,73 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>2056545.18</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="7">
         <v>179201.14</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="12">
+      <c r="D7" s="5"/>
+      <c r="E7" s="7">
         <v>1321939.74</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="12">
+      <c r="F7" s="5"/>
+      <c r="G7" s="7">
         <v>555404.3</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="12">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="7">
         <v>1006028.12</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="7">
         <v>800000</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="11">
         <f t="shared" si="1"/>
         <v>1.25753515</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="7">
         <v>1050517.06</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="7">
         <v>958941.73</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="11">
         <v>1.0955</v>
       </c>
-      <c r="S7" s="6"/>
+      <c r="S7" s="5"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
         <v>20161203</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="4">
         <v>2100736.33</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="M9" s="13">
+      <c r="C9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="M9" s="12">
         <v>1034393.13</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <v>800000</v>
       </c>
       <c r="O9" s="1">
         <v>1.293</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>1066343.2</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>958941.73</v>
       </c>
       <c r="R9" s="1">
@@ -1489,34 +1487,34 @@
       <c r="A10">
         <v>20161217</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="4">
         <v>2192998.92</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>188420.71</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>1234968.89</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>339129.38</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>430479.94</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="12">
         <v>1093859.91</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>800000</v>
       </c>
       <c r="O10" s="1">
         <v>1.3673</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>1099139.01</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>958941.73</v>
       </c>
       <c r="R10" s="1">
@@ -1527,41 +1525,41 @@
       <c r="A11">
         <v>20161226</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="4">
         <v>2271012.92</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>194985.18</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>1251446.61</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>374987.39</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>449593.74</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
         <v>320000</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>272409.98</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="12">
         <v>1144503.28</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>800000</v>
       </c>
       <c r="O11" s="1">
         <v>1.4306</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>1126509.64</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>958941.73</v>
       </c>
       <c r="R11" s="1">
@@ -1575,657 +1573,339 @@
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="4">
         <v>2591012.92</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>194985.18</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>1251446.61</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>694987.39</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>449593.74</v>
       </c>
-      <c r="J12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="4">
-        <v>1231351.71</v>
-      </c>
-      <c r="M12" s="13">
+      <c r="K12" s="3"/>
+      <c r="M12" s="12">
         <v>1144503.28</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>800000</v>
       </c>
       <c r="O12" s="1">
         <v>1.4306</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>1446509.64</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>1231351.71</v>
       </c>
       <c r="R12" s="1">
         <v>1.1747</v>
       </c>
     </row>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <v>20161227</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2620928.29</v>
+      </c>
+      <c r="C13" s="3">
+        <v>195335.7</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1276717.89</v>
+      </c>
+      <c r="F13" s="3">
+        <v>696387.43</v>
+      </c>
+      <c r="G13" s="3">
+        <v>452487.27</v>
+      </c>
+      <c r="J13" s="3">
+        <v>150000</v>
+      </c>
+      <c r="K13" s="3">
+        <v>126667.79</v>
+      </c>
+      <c r="M13" s="12">
+        <v>1162768.97</v>
+      </c>
+      <c r="N13" s="3">
+        <v>800000</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1.4535</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1458159.32</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1231351.71</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1.1842</v>
+      </c>
+      <c r="S13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2770928.29</v>
+      </c>
+      <c r="C14" s="3">
+        <v>345335.7</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1276717.89</v>
+      </c>
+      <c r="F14" s="3">
+        <v>696387.43</v>
+      </c>
+      <c r="G14" s="3">
+        <v>452487.27</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <f>SUM(K3:K13)</f>
+        <v>1358019.5</v>
+      </c>
+      <c r="M14" s="12">
+        <v>1162768.97</v>
+      </c>
+      <c r="N14" s="3">
+        <v>800000</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1.4535</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1608159.32</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1358019.5</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1.1842</v>
+      </c>
+    </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="9"/>
-      <c r="C17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="9"/>
-      <c r="C18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="9"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="9"/>
-      <c r="C20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="9"/>
-      <c r="C21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="9"/>
-      <c r="C22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="2:9">
-      <c r="B23" s="9"/>
-      <c r="C23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="2:9">
-      <c r="B24" s="9"/>
-      <c r="C24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="14"/>
-      <c r="C25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="14"/>
-      <c r="C26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="14"/>
-      <c r="C27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="14"/>
-      <c r="C28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="14"/>
-      <c r="C29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="14"/>
-      <c r="C30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="14"/>
-      <c r="C31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="14"/>
-      <c r="C32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="14"/>
-      <c r="C33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="14"/>
-      <c r="C34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="B35" s="14"/>
-      <c r="C35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="14"/>
-      <c r="C36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="2:9">
-      <c r="B37" s="14"/>
-      <c r="C37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="I37" s="3"/>
     </row>
     <row r="38" spans="2:9">
-      <c r="B38" s="14"/>
-      <c r="C38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="I38" s="3"/>
     </row>
     <row r="39" spans="2:9">
-      <c r="B39" s="14"/>
-      <c r="C39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="I39" s="3"/>
     </row>
     <row r="40" spans="2:9">
-      <c r="B40" s="14"/>
-      <c r="C40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="14"/>
-      <c r="I41" s="4"/>
+      <c r="B41" s="8"/>
+      <c r="I41" s="3"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="14"/>
-      <c r="C42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="I42" s="3"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="14"/>
-      <c r="C43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="I43" s="3"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="14"/>
-      <c r="C44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="I44" s="3"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="14"/>
-      <c r="C45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="I45" s="3"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="14"/>
-      <c r="I46" s="4"/>
+      <c r="B46" s="8"/>
+      <c r="I46" s="3"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="14"/>
-      <c r="I47" s="4"/>
+      <c r="B47" s="8"/>
+      <c r="I47" s="3"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="14"/>
-      <c r="I48" s="4"/>
+      <c r="B48" s="8"/>
+      <c r="I48" s="3"/>
     </row>
     <row r="49" spans="2:9">
-      <c r="B49" s="14"/>
-      <c r="C49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="I49" s="4"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="I49" s="3"/>
     </row>
     <row r="51" spans="10:17">
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A2:K52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:L11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="13.125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="4"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="6"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-    </row>
-    <row r="52" spans="6:10">
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="6" width="13.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExplorerFund/NetValue/fund record.xlsx
+++ b/ExplorerFund/NetValue/fund record.xlsx
@@ -99,15 +99,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -134,14 +134,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,7 +195,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +203,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -178,7 +218,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,16 +239,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,54 +271,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,49 +286,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,133 +460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,78 +477,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -569,6 +497,69 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -577,6 +568,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -585,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -731,46 +731,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1117,8 +1117,8 @@
   <sheetPr/>
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1700,6 +1700,45 @@
         <v>1.1842</v>
       </c>
     </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>20161230</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2854917.61</v>
+      </c>
+      <c r="C15" s="3">
+        <v>356418.02</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1329706.14</v>
+      </c>
+      <c r="F15" s="3">
+        <v>712025.26</v>
+      </c>
+      <c r="G15" s="3">
+        <v>456768.19</v>
+      </c>
+      <c r="H15"/>
+      <c r="M15" s="12">
+        <v>1212629.43</v>
+      </c>
+      <c r="N15" s="3">
+        <v>800000</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1.5158</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1642288.17</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1358019.5</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1.2093</v>
+      </c>
+    </row>
     <row r="17" spans="2:9">
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
@@ -1792,11 +1831,14 @@
       <c r="E30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:16">
       <c r="B31" s="8"/>
       <c r="C31" s="3"/>
       <c r="E31" s="3"/>
       <c r="I31" s="3"/>
+      <c r="P31">
+        <v>30.3</v>
+      </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="8"/>

--- a/ExplorerFund/NetValue/fund record.xlsx
+++ b/ExplorerFund/NetValue/fund record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15975" windowHeight="9405"/>
+    <workbookView windowWidth="20400" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>日期</t>
   </si>
@@ -34,6 +34,9 @@
     <t>上期夜盘权益</t>
   </si>
   <si>
+    <t>上期顾</t>
+  </si>
+  <si>
     <t>郑商日盘权益</t>
   </si>
   <si>
@@ -89,6 +92,12 @@
   </si>
   <si>
     <t>新总值</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CJ</t>
   </si>
   <si>
     <t>小计</t>
@@ -99,15 +108,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -135,6 +144,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,29 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -214,6 +223,30 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,30 +279,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -286,187 +295,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,6 +543,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -557,26 +586,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -585,192 +594,195 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1115,36 +1127,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="11.625" customWidth="1"/>
-    <col min="13" max="13" width="14.375" customWidth="1"/>
-    <col min="14" max="14" width="11.625" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.375" customWidth="1"/>
-    <col min="17" max="17" width="14.5" customWidth="1"/>
-    <col min="18" max="18" width="13.125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.75" customWidth="1"/>
+    <col min="6" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="11.625" customWidth="1"/>
+    <col min="14" max="14" width="14.375" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.375" customWidth="1"/>
+    <col min="18" max="18" width="14.5" customWidth="1"/>
+    <col min="19" max="19" width="13.125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1172,10 +1184,10 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1187,61 +1199,64 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="2">
         <v>42614</v>
       </c>
       <c r="B2" s="3">
         <v>800000</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="3">
-        <v>800000</v>
+      <c r="L2" s="3"/>
+      <c r="M2" t="s">
+        <v>13</v>
       </c>
       <c r="N2" s="3">
         <v>800000</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="3">
+        <v>800000</v>
+      </c>
+      <c r="P2" s="1">
         <v>1</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2">
         <v>0</v>
       </c>
-      <c r="S2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>20161110</v>
       </c>
       <c r="B3" s="4">
-        <f>C3+E3+I3-J3</f>
+        <f>C3+E3+J3-K3</f>
         <v>865702.65</v>
       </c>
       <c r="C3" s="3">
@@ -1250,47 +1265,47 @@
       <c r="E3" s="3">
         <v>968426.71</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>199219</v>
-      </c>
-      <c r="J3" s="3">
-        <v>500000</v>
       </c>
       <c r="K3" s="3">
         <v>500000</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="L3" s="3">
+        <v>500000</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="3">
         <v>865702.65</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>800000</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <f>B3/800000</f>
         <v>1.0821283125</v>
       </c>
-      <c r="P3" s="3">
-        <v>500000</v>
-      </c>
       <c r="Q3" s="3">
         <v>500000</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="3">
+        <v>500000</v>
+      </c>
+      <c r="S3" s="1">
         <v>1</v>
       </c>
-      <c r="S3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>20161124</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:B7" si="0">C4+E4+G4</f>
+        <f t="shared" ref="B4:B7" si="0">C4+E4+H4</f>
         <v>1535233.73</v>
       </c>
       <c r="C4" s="3">
@@ -1299,68 +1314,68 @@
       <c r="E4" s="3">
         <v>1152116.03</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>204390.36</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>250000</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>230013.17</v>
       </c>
-      <c r="L4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="3">
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="3">
         <v>991786.59</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>800000</v>
       </c>
-      <c r="O4" s="1">
-        <f t="shared" ref="O4:O7" si="1">M4/800000</f>
+      <c r="P4" s="1">
+        <f t="shared" ref="P4:P7" si="1">N4/800000</f>
         <v>1.2397332375</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q4" s="3">
         <v>893447.14</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="3">
         <v>822018.44</v>
       </c>
-      <c r="R4" s="14">
+      <c r="S4" s="15">
         <f>0.0868942855166899+1</f>
         <v>1.08689428551669</v>
       </c>
-      <c r="S4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19">
+      <c r="T4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20">
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="J5" s="3">
+      <c r="H5" s="3"/>
+      <c r="K5" s="3">
         <v>100000</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>92004.78</v>
       </c>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="3"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="14">
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="3"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="15">
         <v>1.0869</v>
       </c>
-      <c r="S5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>20161125</v>
       </c>
@@ -1374,44 +1389,44 @@
       <c r="E6" s="3">
         <v>1171939.74</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>555404.3</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>150000</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>136923.78</v>
       </c>
-      <c r="L6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="3">
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="3">
         <v>1006028.12</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <v>800000</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <f t="shared" si="1"/>
         <v>1.25753515</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="3">
         <v>1050517.06</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="R6" s="3">
         <v>958941.73</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>1.0955</v>
       </c>
-      <c r="S6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
@@ -1425,36 +1440,37 @@
         <v>1321939.74</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="7">
+      <c r="G7" s="5"/>
+      <c r="H7" s="7">
         <v>555404.3</v>
       </c>
-      <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="7">
+      <c r="M7" s="5"/>
+      <c r="N7" s="7">
         <v>1006028.12</v>
       </c>
-      <c r="N7" s="7">
+      <c r="O7" s="7">
         <v>800000</v>
       </c>
-      <c r="O7" s="11">
+      <c r="P7" s="12">
         <f t="shared" si="1"/>
         <v>1.25753515</v>
       </c>
-      <c r="P7" s="7">
+      <c r="Q7" s="7">
         <v>1050517.06</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="R7" s="7">
         <v>958941.73</v>
       </c>
-      <c r="R7" s="11">
+      <c r="S7" s="12">
         <v>1.0955</v>
       </c>
-      <c r="S7" s="5"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="T7" s="5"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>20161203</v>
       </c>
@@ -1463,27 +1479,27 @@
       </c>
       <c r="C9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="M9" s="12">
+      <c r="H9" s="3"/>
+      <c r="N9" s="13">
         <v>1034393.13</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>800000</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>1.293</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1066343.2</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>958941.73</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>1.111978</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>20161217</v>
       </c>
@@ -1499,29 +1515,30 @@
       <c r="F10" s="3">
         <v>339129.38</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
         <v>430479.94</v>
       </c>
-      <c r="M10" s="12">
+      <c r="N10" s="13">
         <v>1093859.91</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>800000</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>1.3673</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1099139.01</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>958941.73</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <v>1.1462</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>20161226</v>
       </c>
@@ -1537,41 +1554,42 @@
       <c r="F11" s="3">
         <v>374987.39</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
         <v>449593.74</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3">
         <v>320000</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>272409.98</v>
       </c>
-      <c r="M11" s="12">
+      <c r="N11" s="13">
         <v>1144503.28</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>800000</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>1.4306</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <v>1126509.64</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="R11" s="3">
         <v>958941.73</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
         <v>1.1747</v>
       </c>
-      <c r="S11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="T11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4">
         <v>2591012.92</v>
@@ -1585,30 +1603,31 @@
       <c r="F12" s="3">
         <v>694987.39</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
         <v>449593.74</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="M12" s="12">
+      <c r="L12" s="3"/>
+      <c r="N12" s="13">
         <v>1144503.28</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>800000</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>1.4306</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1446509.64</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1231351.71</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S12" s="1">
         <v>1.1747</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>20161227</v>
       </c>
@@ -1624,40 +1643,41 @@
       <c r="F13" s="3">
         <v>696387.43</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
         <v>452487.27</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>150000</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>126667.79</v>
       </c>
-      <c r="M13" s="12">
+      <c r="N13" s="13">
         <v>1162768.97</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="3">
         <v>800000</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>1.4535</v>
       </c>
-      <c r="P13" s="3">
+      <c r="Q13" s="3">
         <v>1458159.32</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="R13" s="3">
         <v>1231351.71</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S13" s="1">
         <v>1.1842</v>
       </c>
-      <c r="S13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="T13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="4">
         <v>2770928.29</v>
@@ -1671,36 +1691,30 @@
       <c r="F14" s="3">
         <v>696387.43</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
         <v>452487.27</v>
       </c>
-      <c r="J14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14">
-        <f>SUM(K3:K13)</f>
+      <c r="N14" s="13">
+        <v>1162768.97</v>
+      </c>
+      <c r="O14" s="3">
+        <v>800000</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1.4535</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1608159.32</v>
+      </c>
+      <c r="R14" s="3">
         <v>1358019.5</v>
       </c>
-      <c r="M14" s="12">
-        <v>1162768.97</v>
-      </c>
-      <c r="N14" s="3">
-        <v>800000</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1.4535</v>
-      </c>
-      <c r="P14" s="3">
-        <v>1608159.32</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1358019.5</v>
-      </c>
-      <c r="R14" s="1">
+      <c r="S14" s="1">
         <v>1.1842</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>20161230</v>
       </c>
@@ -1716,238 +1730,412 @@
       <c r="F15" s="3">
         <v>712025.26</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
         <v>456768.19</v>
       </c>
-      <c r="H15"/>
-      <c r="M15" s="12">
+      <c r="N15" s="13">
         <v>1212629.43</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>800000</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>1.5158</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1642288.17</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1358019.5</v>
       </c>
-      <c r="R15" s="1">
+      <c r="S15" s="1">
         <v>1.2093</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="2:9">
+    <row r="16" spans="1:20">
+      <c r="A16" s="8">
+        <v>42372</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2854917.61</v>
+      </c>
+      <c r="C16" s="3">
+        <v>356418.02</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1329706.14</v>
+      </c>
+      <c r="F16" s="3">
+        <v>712025.26</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <v>456768.19</v>
+      </c>
+      <c r="K16" s="3">
+        <v>150000</v>
+      </c>
+      <c r="L16" s="3">
+        <v>124038.7</v>
+      </c>
+      <c r="N16" s="13">
+        <v>1212629.43</v>
+      </c>
+      <c r="O16" s="3">
+        <v>800000</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1.5158</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1642288.17</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1358019.5</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1.2093</v>
+      </c>
+      <c r="T16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4">
+        <v>3004917.61</v>
+      </c>
+      <c r="C17" s="3">
+        <v>356418.02</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1329706.14</v>
+      </c>
+      <c r="F17" s="3">
+        <v>712025.26</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <v>606768.19</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="N17" s="13">
+        <v>1212629.43</v>
+      </c>
+      <c r="O17" s="3">
+        <v>800000</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1.5158</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1792288.17</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1482058.2</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1.2093</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <v>20170105</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3035627.2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>356149.65</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1357793.92</v>
+      </c>
+      <c r="F18" s="3">
+        <v>712553.22</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="3">
+        <v>609130.41</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3">
+        <v>300000</v>
+      </c>
+      <c r="L18" s="3">
+        <v>246305.42</v>
+      </c>
+      <c r="N18" s="13">
+        <v>1230552.72</v>
+      </c>
+      <c r="O18" s="3">
+        <v>800000</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1.5382</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1805074.48</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1482058.2</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1.218</v>
+      </c>
+      <c r="T18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3335627.2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>356149.65</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1357793.92</v>
+      </c>
+      <c r="F19" s="3">
+        <v>712553.22</v>
+      </c>
+      <c r="G19" s="3">
+        <v>300000</v>
+      </c>
+      <c r="H19" s="3">
+        <v>609130.41</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="3">
+        <f>SUM(L3:L18)</f>
+        <v>1728363.62</v>
+      </c>
+      <c r="N19" s="13">
+        <v>1230552.72</v>
+      </c>
+      <c r="O19" s="3">
+        <v>800000</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1.5382</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>2105074.48</v>
+      </c>
+      <c r="R19" s="3">
+        <v>1728363.62</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1.218</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="2:9">
+      <c r="G20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="2:9">
+      <c r="G21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="2:9">
+      <c r="G22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="2:9">
+      <c r="G23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="8"/>
+      <c r="G24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="9"/>
       <c r="C25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="8"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="9"/>
       <c r="C26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="8"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="9"/>
       <c r="C27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="8"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="9"/>
       <c r="C28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="8"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="9"/>
       <c r="C29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="8"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="9"/>
       <c r="C30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="2:16">
-      <c r="B31" s="8"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="9"/>
       <c r="C31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="P31">
-        <v>30.3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="8"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="9"/>
       <c r="C32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="8"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="9"/>
       <c r="C33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="8"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="9"/>
       <c r="C34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="8"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="9"/>
       <c r="C35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="8"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="9"/>
       <c r="C36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="8"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="9"/>
       <c r="C37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="8"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="9"/>
       <c r="C38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="8"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="9"/>
       <c r="C39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="8"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="9"/>
       <c r="C40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="8"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="8"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="9"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="9"/>
       <c r="C42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="8"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="9"/>
       <c r="C43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="8"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="9"/>
       <c r="C44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="8"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="9"/>
       <c r="C45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="8"/>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="8"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="8"/>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="8"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="9"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="9"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="9"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="9"/>
       <c r="C49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="51" spans="11:18">
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExplorerFund/NetValue/fund record.xlsx
+++ b/ExplorerFund/NetValue/fund record.xlsx
@@ -109,9 +109,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.0_ "/>
@@ -149,29 +149,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -203,48 +180,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +239,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -295,12 +295,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -313,7 +337,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,157 +451,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,6 +514,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -542,50 +586,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -594,145 +594,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,8 +1129,8 @@
   <sheetPr/>
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1822,8 +1822,6 @@
         <v>606768.19</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17"/>
-      <c r="L17"/>
       <c r="N17" s="13">
         <v>1212629.43</v>
       </c>
@@ -1865,7 +1863,6 @@
       <c r="H18" s="3">
         <v>609130.41</v>
       </c>
-      <c r="I18"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3">
         <v>300000</v>
@@ -1917,7 +1914,6 @@
       <c r="H19" s="3">
         <v>609130.41</v>
       </c>
-      <c r="I19"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3" t="s">
         <v>28</v>
@@ -1945,14 +1941,48 @@
         <v>1.218</v>
       </c>
     </row>
-    <row r="20" spans="2:18">
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+    <row r="20" spans="1:19">
+      <c r="A20">
+        <v>20170116</v>
+      </c>
+      <c r="B20" s="4">
+        <v>3446153.77</v>
+      </c>
+      <c r="C20" s="3">
+        <v>876017.51</v>
+      </c>
+      <c r="E20" s="3">
+        <v>935218.86</v>
+      </c>
+      <c r="F20" s="3">
+        <v>712968.3</v>
+      </c>
+      <c r="G20" s="3">
+        <v>299873.39</v>
+      </c>
+      <c r="H20" s="3">
+        <v>622075.71</v>
+      </c>
+      <c r="I20"/>
       <c r="J20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="N20" s="13">
+        <v>1292267</v>
+      </c>
+      <c r="O20" s="3">
+        <v>800000</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1.6153</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>2153886.74</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1728363.62</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1.2462</v>
+      </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="4"/>

--- a/ExplorerFund/NetValue/fund record.xlsx
+++ b/ExplorerFund/NetValue/fund record.xlsx
@@ -31,7 +31,7 @@
     <t>上期日盘权益</t>
   </si>
   <si>
-    <t>上期夜盘权益</t>
+    <t>上期夜盘权益63</t>
   </si>
   <si>
     <t>上期顾</t>
@@ -108,13 +108,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="180" formatCode="0.0000_ "/>
   </numFmts>
@@ -144,6 +144,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,29 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -210,32 +210,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,19 +250,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,6 +270,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -295,19 +295,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,25 +343,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,13 +409,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,102 +476,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,50 +514,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -586,6 +542,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -594,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +606,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -749,22 +749,22 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -961,160 +961,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1129,18 +1100,19 @@
   <sheetPr/>
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="7" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
     <col min="8" max="8" width="13.75" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="11.625" customWidth="1"/>
@@ -1963,7 +1935,6 @@
       <c r="H20" s="3">
         <v>622075.71</v>
       </c>
-      <c r="I20"/>
       <c r="J20" s="3"/>
       <c r="N20" s="13">
         <v>1292267</v>
@@ -1984,13 +1955,48 @@
         <v>1.2462</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+    <row r="21" spans="1:19">
+      <c r="A21">
+        <v>20170120</v>
+      </c>
+      <c r="B21" s="4">
+        <v>3625218.51</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1005687.89</v>
+      </c>
+      <c r="E21" s="3">
+        <v>956749.49</v>
+      </c>
+      <c r="F21" s="3">
+        <v>701892.66</v>
+      </c>
+      <c r="G21" s="3">
+        <v>304684.16</v>
+      </c>
+      <c r="H21" s="3">
+        <v>656204.31</v>
+      </c>
+      <c r="I21"/>
       <c r="J21" s="3"/>
+      <c r="N21" s="13">
+        <v>1392989.46</v>
+      </c>
+      <c r="O21" s="3">
+        <v>800000</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1.7412</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>2232229.05</v>
+      </c>
+      <c r="R21" s="3">
+        <v>1728363.62</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1.2915</v>
+      </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="4"/>

--- a/ExplorerFund/NetValue/fund record.xlsx
+++ b/ExplorerFund/NetValue/fund record.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>日期</t>
   </si>
@@ -28,7 +28,7 @@
     <t>大连夜盘权益</t>
   </si>
   <si>
-    <t>上期日盘权益</t>
+    <t>上期日盘权益19</t>
   </si>
   <si>
     <t>上期夜盘权益63</t>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>小计</t>
+  </si>
+  <si>
+    <t>2017年前结算</t>
   </si>
 </sst>
 </file>
@@ -108,13 +111,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="180" formatCode="0.0000_ "/>
   </numFmts>
@@ -143,25 +146,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,16 +159,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -196,55 +190,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,6 +219,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -271,8 +258,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,6 +273,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -295,187 +298,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,17 +492,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,31 +517,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,16 +552,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,149 +597,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,24 +752,33 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -777,6 +789,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1101,7 +1116,7 @@
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:T21"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1159,7 +1174,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1314,7 +1329,7 @@
       <c r="R4" s="3">
         <v>822018.44</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="19">
         <f>0.0868942855166899+1</f>
         <v>1.08689428551669</v>
       </c>
@@ -1336,11 +1351,11 @@
       <c r="M5" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="14"/>
       <c r="O5" s="3"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="15">
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="19">
         <v>1.0869</v>
       </c>
       <c r="T5" t="s">
@@ -1427,7 +1442,7 @@
       <c r="O7" s="7">
         <v>800000</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="15">
         <f t="shared" si="1"/>
         <v>1.25753515</v>
       </c>
@@ -1437,7 +1452,7 @@
       <c r="R7" s="7">
         <v>958941.73</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="15">
         <v>1.0955</v>
       </c>
       <c r="T7" s="5"/>
@@ -1452,7 +1467,7 @@
       <c r="C9" s="3"/>
       <c r="E9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="N9" s="13">
+      <c r="N9" s="16">
         <v>1034393.13</v>
       </c>
       <c r="O9" s="3">
@@ -1491,7 +1506,7 @@
       <c r="H10" s="3">
         <v>430479.94</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="16">
         <v>1093859.91</v>
       </c>
       <c r="O10" s="3">
@@ -1537,7 +1552,7 @@
       <c r="L11" s="3">
         <v>272409.98</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="16">
         <v>1144503.28</v>
       </c>
       <c r="O11" s="3">
@@ -1580,7 +1595,7 @@
         <v>449593.74</v>
       </c>
       <c r="L12" s="3"/>
-      <c r="N12" s="13">
+      <c r="N12" s="16">
         <v>1144503.28</v>
       </c>
       <c r="O12" s="3">
@@ -1625,7 +1640,7 @@
       <c r="L13" s="3">
         <v>126667.79</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="16">
         <v>1162768.97</v>
       </c>
       <c r="O13" s="3">
@@ -1667,7 +1682,7 @@
       <c r="H14" s="3">
         <v>452487.27</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="16">
         <v>1162768.97</v>
       </c>
       <c r="O14" s="3">
@@ -1687,46 +1702,52 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15">
+      <c r="A15" s="8">
         <v>20161230</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="9">
         <v>2854917.61</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="10">
         <v>356418.02</v>
       </c>
-      <c r="E15" s="3">
+      <c r="D15" s="8"/>
+      <c r="E15" s="10">
         <v>1329706.14</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="10">
         <v>712025.26</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3">
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
         <v>456768.19</v>
       </c>
-      <c r="N15" s="13">
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="7">
         <v>1212629.43</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="10">
         <v>800000</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="17">
         <v>1.5158</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="10">
         <v>1642288.17</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="10">
         <v>1358019.5</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="17">
         <v>1.2093</v>
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="8">
+      <c r="A16" s="11">
         <v>42372</v>
       </c>
       <c r="B16" s="4">
@@ -1751,7 +1772,7 @@
       <c r="L16" s="3">
         <v>124038.7</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="16">
         <v>1212629.43</v>
       </c>
       <c r="O16" s="3">
@@ -1794,7 +1815,7 @@
         <v>606768.19</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="N17" s="13">
+      <c r="N17" s="16">
         <v>1212629.43</v>
       </c>
       <c r="O17" s="3">
@@ -1842,7 +1863,7 @@
       <c r="L18" s="3">
         <v>246305.42</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="16">
         <v>1230552.72</v>
       </c>
       <c r="O18" s="3">
@@ -1894,7 +1915,7 @@
         <f>SUM(L3:L18)</f>
         <v>1728363.62</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="16">
         <v>1230552.72</v>
       </c>
       <c r="O19" s="3">
@@ -1936,7 +1957,7 @@
         <v>622075.71</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="N20" s="13">
+      <c r="N20" s="16">
         <v>1292267</v>
       </c>
       <c r="O20" s="3">
@@ -1977,9 +1998,8 @@
       <c r="H21" s="3">
         <v>656204.31</v>
       </c>
-      <c r="I21"/>
       <c r="J21" s="3"/>
-      <c r="N21" s="13">
+      <c r="N21" s="16">
         <v>1392989.46</v>
       </c>
       <c r="O21" s="3">
@@ -1998,21 +2018,95 @@
         <v>1.2915</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+    <row r="22" spans="1:19">
+      <c r="A22">
+        <v>20170126</v>
+      </c>
+      <c r="B22" s="4">
+        <v>3745015.14</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1074975.14</v>
+      </c>
+      <c r="E22" s="3">
+        <v>982270</v>
+      </c>
+      <c r="F22" s="3">
+        <v>709911</v>
+      </c>
+      <c r="G22" s="3">
+        <v>309884</v>
+      </c>
+      <c r="H22" s="3">
+        <v>667975</v>
+      </c>
       <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="N22" s="16">
+        <v>1461199.26</v>
+      </c>
+      <c r="O22" s="3">
+        <v>800000</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1.8265</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>2283815.87</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1728363.62</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1.3214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="9">
+        <v>3745015.14</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1074975.14</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="10">
+        <v>982270</v>
+      </c>
+      <c r="F23" s="10">
+        <v>709911</v>
+      </c>
+      <c r="G23" s="10">
+        <v>309884</v>
+      </c>
+      <c r="H23" s="10">
+        <v>667975</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="7">
+        <v>1461199.26</v>
+      </c>
+      <c r="O23" s="10">
+        <v>800000</v>
+      </c>
+      <c r="P23" s="17">
+        <v>1.8265</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>2283815.87</v>
+      </c>
+      <c r="R23" s="10">
+        <v>1728363.62</v>
+      </c>
+      <c r="S23" s="17">
+        <v>1.3214</v>
+      </c>
+      <c r="T23" s="8"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="4"/>
@@ -2023,155 +2117,155 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="9"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="3"/>
       <c r="E25" s="3"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="9"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="3"/>
       <c r="E26" s="3"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="9"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="3"/>
       <c r="E27" s="3"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="9"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="3"/>
       <c r="E28" s="3"/>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="9"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="3"/>
       <c r="E29" s="3"/>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="9"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="3"/>
       <c r="E30" s="3"/>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="9"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="3"/>
       <c r="E31" s="3"/>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="9"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="3"/>
       <c r="E32" s="3"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="9"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="3"/>
       <c r="E33" s="3"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="9"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="3"/>
       <c r="E34" s="3"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="9"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="3"/>
       <c r="E35" s="3"/>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="9"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="3"/>
       <c r="E36" s="3"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="9"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="3"/>
       <c r="E37" s="3"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="9"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="3"/>
       <c r="E38" s="3"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="9"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="3"/>
       <c r="E39" s="3"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="9"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="3"/>
       <c r="E40" s="3"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="9"/>
+      <c r="B41" s="12"/>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="9"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="3"/>
       <c r="E42" s="3"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="9"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="3"/>
       <c r="E43" s="3"/>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="9"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="3"/>
       <c r="E44" s="3"/>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="9"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="3"/>
       <c r="E45" s="3"/>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="9"/>
+      <c r="B46" s="12"/>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="9"/>
+      <c r="B47" s="12"/>
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="9"/>
+      <c r="B48" s="12"/>
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="9"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="3"/>
       <c r="E49" s="3"/>
       <c r="J49" s="3"/>
     </row>
     <row r="51" spans="11:18">
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExplorerFund/NetValue/fund record.xlsx
+++ b/ExplorerFund/NetValue/fund record.xlsx
@@ -34,7 +34,7 @@
     <t>上期夜盘权益63</t>
   </si>
   <si>
-    <t>上期顾</t>
+    <t>上期顾85</t>
   </si>
   <si>
     <t>郑商日盘权益</t>
@@ -111,15 +111,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
-    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0.0000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -145,15 +145,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,25 +160,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,6 +184,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -219,38 +204,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -258,15 +211,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -282,6 +234,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -298,12 +298,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -322,7 +352,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,31 +400,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,115 +436,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,15 +507,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -527,6 +518,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,30 +589,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -597,10 +597,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,137 +609,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -752,52 +752,46 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1115,8 +1109,8 @@
   <sheetPr/>
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1124,7 +1118,7 @@
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
     <col min="7" max="7" width="13.25" customWidth="1"/>
@@ -1174,7 +1168,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1329,7 +1323,7 @@
       <c r="R4" s="3">
         <v>822018.44</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="16">
         <f>0.0868942855166899+1</f>
         <v>1.08689428551669</v>
       </c>
@@ -1351,11 +1345,11 @@
       <c r="M5" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="3"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="19">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="16">
         <v>1.0869</v>
       </c>
       <c r="T5" t="s">
@@ -1442,7 +1436,7 @@
       <c r="O7" s="7">
         <v>800000</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="12">
         <f t="shared" si="1"/>
         <v>1.25753515</v>
       </c>
@@ -1452,7 +1446,7 @@
       <c r="R7" s="7">
         <v>958941.73</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="12">
         <v>1.0955</v>
       </c>
       <c r="T7" s="5"/>
@@ -1467,7 +1461,7 @@
       <c r="C9" s="3"/>
       <c r="E9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="N9" s="16">
+      <c r="N9" s="13">
         <v>1034393.13</v>
       </c>
       <c r="O9" s="3">
@@ -1506,7 +1500,7 @@
       <c r="H10" s="3">
         <v>430479.94</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="13">
         <v>1093859.91</v>
       </c>
       <c r="O10" s="3">
@@ -1552,7 +1546,7 @@
       <c r="L11" s="3">
         <v>272409.98</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="13">
         <v>1144503.28</v>
       </c>
       <c r="O11" s="3">
@@ -1595,7 +1589,7 @@
         <v>449593.74</v>
       </c>
       <c r="L12" s="3"/>
-      <c r="N12" s="16">
+      <c r="N12" s="13">
         <v>1144503.28</v>
       </c>
       <c r="O12" s="3">
@@ -1640,7 +1634,7 @@
       <c r="L13" s="3">
         <v>126667.79</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="13">
         <v>1162768.97</v>
       </c>
       <c r="O13" s="3">
@@ -1682,7 +1676,7 @@
       <c r="H14" s="3">
         <v>452487.27</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="13">
         <v>1162768.97</v>
       </c>
       <c r="O14" s="3">
@@ -1702,52 +1696,52 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="8">
+      <c r="A15" s="5">
         <v>20161230</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <v>2854917.61</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>356418.02</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10">
+      <c r="D15" s="5"/>
+      <c r="E15" s="7">
         <v>1329706.14</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="7">
         <v>712025.26</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7">
         <v>456768.19</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
       <c r="N15" s="7">
         <v>1212629.43</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="7">
         <v>800000</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="12">
         <v>1.5158</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="7">
         <v>1642288.17</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15" s="7">
         <v>1358019.5</v>
       </c>
-      <c r="S15" s="17">
+      <c r="S15" s="12">
         <v>1.2093</v>
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="11">
+      <c r="A16" s="8">
         <v>42372</v>
       </c>
       <c r="B16" s="4">
@@ -1772,7 +1766,7 @@
       <c r="L16" s="3">
         <v>124038.7</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="13">
         <v>1212629.43</v>
       </c>
       <c r="O16" s="3">
@@ -1815,7 +1809,7 @@
         <v>606768.19</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="N17" s="16">
+      <c r="N17" s="13">
         <v>1212629.43</v>
       </c>
       <c r="O17" s="3">
@@ -1863,7 +1857,7 @@
       <c r="L18" s="3">
         <v>246305.42</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="13">
         <v>1230552.72</v>
       </c>
       <c r="O18" s="3">
@@ -1915,7 +1909,7 @@
         <f>SUM(L3:L18)</f>
         <v>1728363.62</v>
       </c>
-      <c r="N19" s="16">
+      <c r="N19" s="13">
         <v>1230552.72</v>
       </c>
       <c r="O19" s="3">
@@ -1957,7 +1951,7 @@
         <v>622075.71</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="N20" s="16">
+      <c r="N20" s="13">
         <v>1292267</v>
       </c>
       <c r="O20" s="3">
@@ -1999,7 +1993,7 @@
         <v>656204.31</v>
       </c>
       <c r="J21" s="3"/>
-      <c r="N21" s="16">
+      <c r="N21" s="13">
         <v>1392989.46</v>
       </c>
       <c r="O21" s="3">
@@ -2041,7 +2035,7 @@
         <v>667975</v>
       </c>
       <c r="J22" s="3"/>
-      <c r="N22" s="16">
+      <c r="N22" s="13">
         <v>1461199.26</v>
       </c>
       <c r="O22" s="3">
@@ -2064,208 +2058,243 @@
       <c r="A23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="6">
         <v>3745015.14</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="7">
         <v>1074975.14</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="10">
+      <c r="D23" s="5"/>
+      <c r="E23" s="7">
         <v>982270</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="7">
         <v>709911</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="7">
         <v>309884</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="7">
         <v>667975</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
       <c r="N23" s="7">
         <v>1461199.26</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="7">
         <v>800000</v>
       </c>
-      <c r="P23" s="17">
+      <c r="P23" s="12">
         <v>1.8265</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="7">
         <v>2283815.87</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="7">
         <v>1728363.62</v>
       </c>
-      <c r="S23" s="17">
+      <c r="S23" s="12">
         <v>1.3214</v>
       </c>
-      <c r="T23" s="8"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24">
+        <v>20170217</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3942826</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1207899</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1006926</v>
+      </c>
+      <c r="F24" s="3">
+        <v>722987</v>
+      </c>
+      <c r="G24" s="3">
+        <v>310942</v>
+      </c>
+      <c r="H24" s="3">
+        <v>694072</v>
+      </c>
+      <c r="I24"/>
       <c r="J24" s="3"/>
+      <c r="N24" s="13">
+        <v>1574523.18</v>
+      </c>
+      <c r="O24" s="13">
+        <v>800000</v>
+      </c>
+      <c r="P24" s="14">
+        <v>1.9682</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>2368302.82</v>
+      </c>
+      <c r="R24" s="13">
+        <v>1728363.62</v>
+      </c>
+      <c r="S24" s="17">
+        <v>1.3703</v>
+      </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="12"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="3"/>
       <c r="E25" s="3"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="12"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="3"/>
       <c r="E26" s="3"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="12"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="3"/>
       <c r="E27" s="3"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="12"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="3"/>
       <c r="E28" s="3"/>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="12"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="3"/>
       <c r="E29" s="3"/>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="12"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="3"/>
       <c r="E30" s="3"/>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="12"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="3"/>
       <c r="E31" s="3"/>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="12"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3"/>
       <c r="E32" s="3"/>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="12"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="3"/>
       <c r="E33" s="3"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="12"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="3"/>
       <c r="E34" s="3"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="12"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="3"/>
       <c r="E35" s="3"/>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="12"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="3"/>
       <c r="E36" s="3"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="12"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="3"/>
       <c r="E37" s="3"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="12"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="3"/>
       <c r="E38" s="3"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="12"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="3"/>
       <c r="E39" s="3"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="12"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="3"/>
       <c r="E40" s="3"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="12"/>
+      <c r="B41" s="9"/>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="12"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="3"/>
       <c r="E42" s="3"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="12"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="3"/>
       <c r="E43" s="3"/>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="12"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="3"/>
       <c r="E44" s="3"/>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="12"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="3"/>
       <c r="E45" s="3"/>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="12"/>
+      <c r="B46" s="9"/>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="12"/>
+      <c r="B47" s="9"/>
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="12"/>
+      <c r="B48" s="9"/>
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="12"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="3"/>
       <c r="E49" s="3"/>
       <c r="J49" s="3"/>
     </row>
     <row r="51" spans="11:18">
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExplorerFund/NetValue/fund record.xlsx
+++ b/ExplorerFund/NetValue/fund record.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>日期</t>
   </si>
@@ -25,9 +25,6 @@
     <t>大连日盘权益</t>
   </si>
   <si>
-    <t>大连夜盘权益</t>
-  </si>
-  <si>
     <t>上期日盘权益19</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>郑商日盘权益</t>
   </si>
   <si>
-    <t>郑商夜盘权益</t>
-  </si>
-  <si>
     <t>cash</t>
   </si>
   <si>
@@ -55,6 +49,15 @@
     <t>资金出入类别</t>
   </si>
   <si>
+    <t>周收益率%</t>
+  </si>
+  <si>
+    <t>原始净值</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 李洋权益</t>
+  </si>
+  <si>
     <t>股东权益</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
   </si>
   <si>
     <t>2017年前结算</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 股东权益</t>
   </si>
 </sst>
 </file>
@@ -112,14 +118,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -145,14 +151,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -160,16 +158,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -178,13 +176,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,7 +196,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +226,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -234,16 +273,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,33 +288,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,187 +304,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,17 +498,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,8 +525,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,8 +579,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,30 +595,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -597,10 +603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,137 +615,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -752,43 +758,40 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1107,37 +1110,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="11.625" customWidth="1"/>
-    <col min="14" max="14" width="14.375" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
-    <col min="16" max="16" width="11.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.375" customWidth="1"/>
-    <col min="18" max="18" width="14.5" customWidth="1"/>
-    <col min="19" max="19" width="13.125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.75" customWidth="1"/>
+    <col min="3" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="11.375" customWidth="1"/>
+    <col min="13" max="13" width="10.125" customWidth="1"/>
+    <col min="14" max="14" width="13.75" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="13.25" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="14.375" customWidth="1"/>
+    <col min="19" max="19" width="14.5" customWidth="1"/>
+    <col min="20" max="20" width="13.125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1162,13 +1165,13 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1183,7 +1186,7 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" t="s">
@@ -1192,171 +1195,191 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="2">
         <v>42614</v>
       </c>
       <c r="B2" s="3">
         <v>800000</v>
       </c>
+      <c r="J2" s="3"/>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
       <c r="L2" s="3"/>
-      <c r="M2" t="s">
-        <v>13</v>
+      <c r="M2" s="3">
+        <v>1</v>
       </c>
       <c r="N2" s="3">
-        <v>800000</v>
+        <v>200000</v>
       </c>
       <c r="O2" s="3">
-        <v>800000</v>
-      </c>
-      <c r="P2" s="1">
+        <v>600000</v>
+      </c>
+      <c r="P2" s="3">
+        <v>600000</v>
+      </c>
+      <c r="Q2">
         <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>20161110</v>
       </c>
       <c r="B3" s="4">
-        <f>C3+E3+J3-K3</f>
+        <f>C3+D3+H3-I3</f>
         <v>865702.65</v>
       </c>
       <c r="C3" s="3">
         <v>198056.94</v>
       </c>
-      <c r="E3" s="3">
+      <c r="D3" s="3">
         <v>968426.71</v>
       </c>
+      <c r="H3" s="3">
+        <v>199219</v>
+      </c>
+      <c r="I3" s="3">
+        <v>500000</v>
+      </c>
       <c r="J3" s="3">
-        <v>199219</v>
-      </c>
-      <c r="K3" s="3">
         <v>500000</v>
       </c>
-      <c r="L3" s="3">
-        <v>500000</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>16</v>
+      <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="4">
+        <v>8.21</v>
+      </c>
+      <c r="M3">
+        <v>1.0821</v>
       </c>
       <c r="N3" s="3">
-        <v>865702.65</v>
+        <v>216240</v>
       </c>
       <c r="O3" s="3">
-        <v>800000</v>
-      </c>
-      <c r="P3" s="1">
-        <f>B3/800000</f>
-        <v>1.0821283125</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>500000</v>
+        <v>665702.65</v>
+      </c>
+      <c r="P3" s="3">
+        <v>600000</v>
+      </c>
+      <c r="Q3">
+        <v>1.0821</v>
       </c>
       <c r="R3" s="3">
         <v>500000</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="3">
+        <v>500000</v>
+      </c>
+      <c r="T3" s="1">
         <v>1</v>
       </c>
-      <c r="T3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>20161124</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:B7" si="0">C4+E4+H4</f>
+        <f t="shared" ref="B4:B7" si="0">C4+D4+G4</f>
         <v>1535233.73</v>
       </c>
       <c r="C4" s="3">
         <v>178727.34</v>
       </c>
-      <c r="E4" s="3">
+      <c r="D4" s="3">
         <v>1152116.03</v>
       </c>
-      <c r="H4" s="3">
+      <c r="G4" s="3">
         <v>204390.36</v>
       </c>
-      <c r="K4" s="3">
+      <c r="I4" s="3">
         <v>250000</v>
       </c>
-      <c r="L4" s="3">
+      <c r="J4" s="3">
         <v>230013.17</v>
       </c>
-      <c r="M4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="3">
-        <v>991786.59</v>
-      </c>
-      <c r="O4" s="3">
-        <v>800000</v>
-      </c>
-      <c r="P4" s="1">
-        <f t="shared" ref="P4:P7" si="1">N4/800000</f>
-        <v>1.2397332375</v>
-      </c>
-      <c r="Q4" s="3">
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3">
+        <v>600000</v>
+      </c>
+      <c r="Q4">
+        <v>1.2397</v>
+      </c>
+      <c r="R4" s="3">
         <v>893447.14</v>
       </c>
-      <c r="R4" s="3">
+      <c r="S4" s="3">
         <v>822018.44</v>
       </c>
-      <c r="S4" s="16">
+      <c r="T4" s="13">
         <f>0.0868942855166899+1</f>
         <v>1.08689428551669</v>
       </c>
-      <c r="T4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20">
+      <c r="U4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21">
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="K5" s="3">
+      <c r="D5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="I5" s="3">
         <v>100000</v>
       </c>
-      <c r="L5" s="3">
+      <c r="J5" s="3">
         <v>92004.78</v>
       </c>
-      <c r="M5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="3"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="16">
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="P5" s="3"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="13">
         <v>1.0869</v>
       </c>
-      <c r="T5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>20161125</v>
       </c>
@@ -1367,47 +1390,49 @@
       <c r="C6" s="3">
         <v>179201.14</v>
       </c>
-      <c r="E6" s="3">
+      <c r="D6" s="3">
         <v>1171939.74</v>
       </c>
-      <c r="H6" s="3">
+      <c r="G6" s="3">
         <v>555404.3</v>
       </c>
-      <c r="K6" s="3">
+      <c r="I6" s="3">
         <v>150000</v>
       </c>
-      <c r="L6" s="3">
+      <c r="J6" s="3">
         <v>136923.78</v>
       </c>
-      <c r="M6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="3">
-        <v>1006028.12</v>
-      </c>
-      <c r="O6" s="3">
-        <v>800000</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="1"/>
-        <v>1.25753515</v>
-      </c>
-      <c r="Q6" s="3">
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="7">
+        <v>759427.94</v>
+      </c>
+      <c r="P6" s="3">
+        <v>600000</v>
+      </c>
+      <c r="Q6">
+        <v>1.2657</v>
+      </c>
+      <c r="R6" s="3">
         <v>1050517.06</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
         <v>958941.73</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>1.0955</v>
       </c>
-      <c r="T6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
@@ -1416,42 +1441,48 @@
       <c r="C7" s="7">
         <v>179201.14</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="7">
+      <c r="D7" s="7">
         <v>1321939.74</v>
       </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7">
+      <c r="G7" s="7">
         <v>555404.3</v>
       </c>
+      <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="7">
-        <v>1006028.12</v>
+      <c r="L7" s="6">
+        <v>13.97</v>
+      </c>
+      <c r="M7">
+        <v>1.2333</v>
+      </c>
+      <c r="N7" s="3">
+        <v>246600</v>
       </c>
       <c r="O7" s="7">
-        <v>800000</v>
-      </c>
-      <c r="P7" s="12">
-        <f t="shared" si="1"/>
-        <v>1.25753515</v>
-      </c>
-      <c r="Q7" s="7">
+        <v>759427.94</v>
+      </c>
+      <c r="P7" s="7">
+        <v>600000</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1.2657</v>
+      </c>
+      <c r="R7" s="7">
         <v>1050517.06</v>
       </c>
-      <c r="R7" s="7">
+      <c r="S7" s="7">
         <v>958941.73</v>
       </c>
-      <c r="S7" s="12">
+      <c r="T7" s="15">
         <v>1.0955</v>
       </c>
-      <c r="T7" s="5"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="U7" s="5"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>20161203</v>
       </c>
@@ -1459,28 +1490,37 @@
         <v>2100736.33</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="N9" s="13">
-        <v>1034393.13</v>
+      <c r="D9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="L9" s="4">
+        <v>2.148</v>
+      </c>
+      <c r="M9">
+        <v>1.2598</v>
+      </c>
+      <c r="N9" s="3">
+        <v>251960</v>
       </c>
       <c r="O9" s="3">
-        <v>800000</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1.293</v>
-      </c>
-      <c r="Q9" s="3">
+        <v>782433</v>
+      </c>
+      <c r="P9" s="3">
+        <v>600000</v>
+      </c>
+      <c r="Q9">
+        <v>1.304</v>
+      </c>
+      <c r="R9" s="3">
         <v>1066343.2</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>958941.73</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>1.111978</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>20161217</v>
       </c>
@@ -1490,36 +1530,45 @@
       <c r="C10" s="3">
         <v>188420.71</v>
       </c>
+      <c r="D10" s="3">
+        <v>1234968.89</v>
+      </c>
       <c r="E10" s="3">
-        <v>1234968.89</v>
-      </c>
-      <c r="F10" s="3">
         <v>339129.38</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3">
         <v>430479.94</v>
       </c>
-      <c r="N10" s="13">
-        <v>1093859.91</v>
+      <c r="L10" s="4">
+        <v>4.39</v>
+      </c>
+      <c r="M10">
+        <v>1.3151</v>
+      </c>
+      <c r="N10" s="3">
+        <v>263020</v>
       </c>
       <c r="O10" s="3">
-        <v>800000</v>
-      </c>
-      <c r="P10" s="1">
-        <v>1.3673</v>
-      </c>
-      <c r="Q10" s="3">
+        <v>830839</v>
+      </c>
+      <c r="P10" s="3">
+        <v>600000</v>
+      </c>
+      <c r="Q10">
+        <v>1.3846</v>
+      </c>
+      <c r="R10" s="3">
         <v>1099139.01</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>958941.73</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <v>1.1462</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>20161226</v>
       </c>
@@ -1529,48 +1578,57 @@
       <c r="C11" s="3">
         <v>194985.18</v>
       </c>
+      <c r="D11" s="3">
+        <v>1251446.61</v>
+      </c>
       <c r="E11" s="3">
-        <v>1251446.61</v>
-      </c>
-      <c r="F11" s="3">
         <v>374987.39</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3">
         <v>449593.74</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
         <v>320000</v>
       </c>
-      <c r="L11" s="3">
+      <c r="J11" s="3">
         <v>272409.98</v>
       </c>
-      <c r="N11" s="13">
-        <v>1144503.28</v>
+      <c r="L11" s="4">
+        <v>3.56</v>
+      </c>
+      <c r="M11">
+        <v>1.3619</v>
+      </c>
+      <c r="N11" s="3">
+        <v>272380</v>
       </c>
       <c r="O11" s="3">
-        <v>800000</v>
-      </c>
-      <c r="P11" s="1">
-        <v>1.4306</v>
-      </c>
-      <c r="Q11" s="3">
+        <v>872133.28</v>
+      </c>
+      <c r="P11" s="3">
+        <v>600000</v>
+      </c>
+      <c r="Q11">
+        <v>1.4535</v>
+      </c>
+      <c r="R11" s="3">
         <v>1126509.64</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <v>958941.73</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>1.1747</v>
       </c>
-      <c r="T11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="U11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4">
         <v>2591012.92</v>
@@ -1578,37 +1636,38 @@
       <c r="C12" s="3">
         <v>194985.18</v>
       </c>
+      <c r="D12" s="3">
+        <v>1251446.61</v>
+      </c>
       <c r="E12" s="3">
-        <v>1251446.61</v>
-      </c>
-      <c r="F12" s="3">
         <v>694987.39</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
         <v>449593.74</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="N12" s="13">
-        <v>1144503.28</v>
-      </c>
-      <c r="O12" s="3">
-        <v>800000</v>
-      </c>
-      <c r="P12" s="1">
-        <v>1.4306</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="J12" s="3"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3">
+        <v>600000</v>
+      </c>
+      <c r="Q12">
+        <v>1.4535</v>
+      </c>
+      <c r="R12" s="3">
         <v>1446509.64</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1231351.71</v>
       </c>
-      <c r="S12" s="1">
+      <c r="T12" s="1">
         <v>1.1747</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>20161227</v>
       </c>
@@ -1618,47 +1677,56 @@
       <c r="C13" s="3">
         <v>195335.7</v>
       </c>
+      <c r="D13" s="3">
+        <v>1276717.89</v>
+      </c>
       <c r="E13" s="3">
-        <v>1276717.89</v>
-      </c>
-      <c r="F13" s="3">
         <v>696387.43</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
         <v>452487.27</v>
       </c>
-      <c r="K13" s="3">
+      <c r="I13" s="3">
         <v>150000</v>
       </c>
-      <c r="L13" s="3">
+      <c r="J13" s="3">
         <v>126667.79</v>
       </c>
-      <c r="N13" s="13">
-        <v>1162768.97</v>
+      <c r="L13" s="4">
+        <v>1.15</v>
+      </c>
+      <c r="M13">
+        <v>1.3775</v>
+      </c>
+      <c r="N13" s="3">
+        <v>275500</v>
       </c>
       <c r="O13" s="3">
-        <v>800000</v>
-      </c>
-      <c r="P13" s="1">
-        <v>1.4535</v>
-      </c>
-      <c r="Q13" s="3">
+        <v>887268.97</v>
+      </c>
+      <c r="P13" s="3">
+        <v>600000</v>
+      </c>
+      <c r="Q13">
+        <v>1.4787</v>
+      </c>
+      <c r="R13" s="3">
         <v>1458159.32</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S13" s="3">
         <v>1231351.71</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="1">
         <v>1.1842</v>
       </c>
-      <c r="T13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="U13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="4">
         <v>2770928.29</v>
@@ -1666,36 +1734,34 @@
       <c r="C14" s="3">
         <v>345335.7</v>
       </c>
+      <c r="D14" s="3">
+        <v>1276717.89</v>
+      </c>
       <c r="E14" s="3">
-        <v>1276717.89</v>
-      </c>
-      <c r="F14" s="3">
         <v>696387.43</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
         <v>452487.27</v>
       </c>
-      <c r="N14" s="13">
-        <v>1162768.97</v>
-      </c>
-      <c r="O14" s="3">
-        <v>800000</v>
-      </c>
-      <c r="P14" s="1">
-        <v>1.4535</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3">
+        <v>600000</v>
+      </c>
+      <c r="Q14">
+        <v>1.4787</v>
+      </c>
+      <c r="R14" s="3">
         <v>1608159.32</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1358019.5</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="1">
         <v>1.1842</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:20">
       <c r="A15" s="5">
         <v>20161230</v>
       </c>
@@ -1705,42 +1771,49 @@
       <c r="C15" s="7">
         <v>356418.02</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="7">
+        <v>1329706.14</v>
+      </c>
       <c r="E15" s="7">
-        <v>1329706.14</v>
-      </c>
-      <c r="F15" s="7">
         <v>712025.26</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
         <v>456768.19</v>
       </c>
+      <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="7">
-        <v>1212629.43</v>
-      </c>
-      <c r="O15" s="7">
-        <v>800000</v>
-      </c>
-      <c r="P15" s="12">
-        <v>1.5158</v>
-      </c>
-      <c r="Q15" s="7">
+      <c r="L15">
+        <v>3.031</v>
+      </c>
+      <c r="M15">
+        <v>1.4293</v>
+      </c>
+      <c r="N15" s="3">
+        <v>285860</v>
+      </c>
+      <c r="O15" s="3">
+        <v>926969.44</v>
+      </c>
+      <c r="P15" s="3">
+        <v>600000</v>
+      </c>
+      <c r="Q15">
+        <v>1.5446</v>
+      </c>
+      <c r="R15" s="7">
         <v>1642288.17</v>
       </c>
-      <c r="R15" s="7">
+      <c r="S15" s="7">
         <v>1358019.5</v>
       </c>
-      <c r="S15" s="12">
+      <c r="T15" s="15">
         <v>1.2093</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" s="8">
         <v>42372</v>
       </c>
@@ -1750,47 +1823,45 @@
       <c r="C16" s="3">
         <v>356418.02</v>
       </c>
+      <c r="D16" s="3">
+        <v>1329706.14</v>
+      </c>
       <c r="E16" s="3">
-        <v>1329706.14</v>
-      </c>
-      <c r="F16" s="3">
         <v>712025.26</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
         <v>456768.19</v>
       </c>
-      <c r="K16" s="3">
+      <c r="I16" s="3">
         <v>150000</v>
       </c>
-      <c r="L16" s="3">
+      <c r="J16" s="3">
         <v>124038.7</v>
       </c>
-      <c r="N16" s="13">
-        <v>1212629.43</v>
-      </c>
-      <c r="O16" s="3">
-        <v>800000</v>
-      </c>
-      <c r="P16" s="1">
-        <v>1.5158</v>
-      </c>
-      <c r="Q16" s="3">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3">
+        <v>600000</v>
+      </c>
+      <c r="Q16">
+        <v>1.5446</v>
+      </c>
+      <c r="R16" s="3">
         <v>1642288.17</v>
       </c>
-      <c r="R16" s="3">
+      <c r="S16" s="3">
         <v>1358019.5</v>
       </c>
-      <c r="S16" s="1">
+      <c r="T16" s="1">
         <v>1.2093</v>
       </c>
-      <c r="T16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="U16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4">
         <v>3004917.61</v>
@@ -1798,37 +1869,32 @@
       <c r="C17" s="3">
         <v>356418.02</v>
       </c>
+      <c r="D17" s="3">
+        <v>1329706.14</v>
+      </c>
       <c r="E17" s="3">
-        <v>1329706.14</v>
-      </c>
-      <c r="F17" s="3">
         <v>712025.26</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3">
         <v>606768.19</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="N17" s="13">
-        <v>1212629.43</v>
-      </c>
-      <c r="O17" s="3">
-        <v>800000</v>
-      </c>
-      <c r="P17" s="1">
-        <v>1.5158</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="H17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3">
+        <v>600000</v>
+      </c>
+      <c r="R17" s="3">
         <v>1792288.17</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1482058.2</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T17" s="1">
         <v>1.2093</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="A18">
         <v>20170105</v>
       </c>
@@ -1838,50 +1904,59 @@
       <c r="C18" s="3">
         <v>356149.65</v>
       </c>
+      <c r="D18" s="3">
+        <v>1357793.92</v>
+      </c>
       <c r="E18" s="3">
-        <v>1357793.92</v>
-      </c>
-      <c r="F18" s="3">
         <v>712553.22</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="3">
+        <v>609130.41</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3">
+        <v>300000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>246305.42</v>
+      </c>
+      <c r="L18">
+        <v>1.01</v>
+      </c>
+      <c r="M18">
+        <v>1.4439</v>
+      </c>
+      <c r="N18" s="3">
+        <v>288780</v>
+      </c>
+      <c r="O18" s="3">
+        <v>941772.72</v>
+      </c>
+      <c r="P18" s="3">
+        <v>600000</v>
+      </c>
+      <c r="Q18">
+        <v>1.5696</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1805074.48</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1482058.2</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1.218</v>
+      </c>
+      <c r="U18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
         <v>26</v>
-      </c>
-      <c r="H18" s="3">
-        <v>609130.41</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3">
-        <v>300000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>246305.42</v>
-      </c>
-      <c r="N18" s="13">
-        <v>1230552.72</v>
-      </c>
-      <c r="O18" s="3">
-        <v>800000</v>
-      </c>
-      <c r="P18" s="1">
-        <v>1.5382</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1805074.48</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1482058.2</v>
-      </c>
-      <c r="S18" s="1">
-        <v>1.218</v>
-      </c>
-      <c r="T18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" t="s">
-        <v>25</v>
       </c>
       <c r="B19" s="4">
         <v>3335627.2</v>
@@ -1889,46 +1964,50 @@
       <c r="C19" s="3">
         <v>356149.65</v>
       </c>
+      <c r="D19" s="3">
+        <v>1357793.92</v>
+      </c>
       <c r="E19" s="3">
-        <v>1357793.92</v>
+        <v>712553.22</v>
       </c>
       <c r="F19" s="3">
-        <v>712553.22</v>
+        <v>300000</v>
       </c>
       <c r="G19" s="3">
-        <v>300000</v>
-      </c>
-      <c r="H19" s="3">
         <v>609130.41</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="3">
-        <f>SUM(L3:L18)</f>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="3">
+        <f>SUM(J3:J18)</f>
         <v>1728363.62</v>
       </c>
-      <c r="N19" s="13">
-        <v>1230552.72</v>
-      </c>
-      <c r="O19" s="3">
-        <v>800000</v>
-      </c>
-      <c r="P19" s="1">
-        <v>1.5382</v>
-      </c>
-      <c r="Q19" s="3">
+      <c r="M19">
+        <v>1.4439</v>
+      </c>
+      <c r="N19" s="3">
+        <v>288780</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3">
+        <v>600000</v>
+      </c>
+      <c r="Q19">
+        <v>1.5696</v>
+      </c>
+      <c r="R19" s="3">
         <v>2105074.48</v>
       </c>
-      <c r="R19" s="3">
+      <c r="S19" s="3">
         <v>1728363.62</v>
       </c>
-      <c r="S19" s="1">
+      <c r="T19" s="1">
         <v>1.218</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:20">
       <c r="A20">
         <v>20170116</v>
       </c>
@@ -1938,39 +2017,48 @@
       <c r="C20" s="3">
         <v>876017.51</v>
       </c>
+      <c r="D20" s="3">
+        <v>935218.86</v>
+      </c>
       <c r="E20" s="3">
-        <v>935218.86</v>
+        <v>712968.3</v>
       </c>
       <c r="F20" s="3">
-        <v>712968.3</v>
+        <v>299873.39</v>
       </c>
       <c r="G20" s="3">
-        <v>299873.39</v>
-      </c>
-      <c r="H20" s="3">
         <v>622075.71</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="N20" s="13">
-        <v>1292267</v>
+      <c r="H20" s="3"/>
+      <c r="L20" s="4">
+        <v>3.31</v>
+      </c>
+      <c r="M20">
+        <v>1.4917</v>
+      </c>
+      <c r="N20" s="3">
+        <v>298340</v>
       </c>
       <c r="O20" s="3">
-        <v>800000</v>
-      </c>
-      <c r="P20" s="1">
-        <v>1.6153</v>
-      </c>
-      <c r="Q20" s="3">
+        <v>993927.03</v>
+      </c>
+      <c r="P20" s="3">
+        <v>600000</v>
+      </c>
+      <c r="Q20">
+        <v>1.6565</v>
+      </c>
+      <c r="R20" s="3">
         <v>2153886.74</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1728363.62</v>
       </c>
-      <c r="S20" s="1">
+      <c r="T20" s="1">
         <v>1.2462</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>20170120</v>
       </c>
@@ -1980,39 +2068,48 @@
       <c r="C21" s="3">
         <v>1005687.89</v>
       </c>
+      <c r="D21" s="3">
+        <v>956749.49</v>
+      </c>
       <c r="E21" s="3">
-        <v>956749.49</v>
+        <v>701892.66</v>
       </c>
       <c r="F21" s="3">
-        <v>701892.66</v>
+        <v>304684.16</v>
       </c>
       <c r="G21" s="3">
-        <v>304684.16</v>
-      </c>
-      <c r="H21" s="3">
         <v>656204.31</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="N21" s="13">
-        <v>1392989.46</v>
+      <c r="H21" s="3"/>
+      <c r="L21" s="4">
+        <v>5.19</v>
+      </c>
+      <c r="M21">
+        <v>1.5692</v>
+      </c>
+      <c r="N21" s="3">
+        <v>313840</v>
       </c>
       <c r="O21" s="3">
-        <v>800000</v>
-      </c>
-      <c r="P21" s="1">
-        <v>1.7412</v>
-      </c>
-      <c r="Q21" s="3">
+        <v>1079149.46</v>
+      </c>
+      <c r="P21" s="3">
+        <v>600000</v>
+      </c>
+      <c r="Q21">
+        <v>1.7985</v>
+      </c>
+      <c r="R21" s="3">
         <v>2232229.05</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1728363.62</v>
       </c>
-      <c r="S21" s="1">
+      <c r="T21" s="1">
         <v>1.2915</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:20">
       <c r="A22">
         <v>20170126</v>
       </c>
@@ -2022,41 +2119,50 @@
       <c r="C22" s="3">
         <v>1074975.14</v>
       </c>
+      <c r="D22" s="3">
+        <v>982270</v>
+      </c>
       <c r="E22" s="3">
-        <v>982270</v>
+        <v>709911</v>
       </c>
       <c r="F22" s="3">
-        <v>709911</v>
+        <v>309884</v>
       </c>
       <c r="G22" s="3">
-        <v>309884</v>
-      </c>
-      <c r="H22" s="3">
         <v>667975</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="N22" s="13">
-        <v>1461199.26</v>
-      </c>
-      <c r="O22" s="3">
-        <v>800000</v>
-      </c>
-      <c r="P22" s="1">
-        <v>1.8265</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="H22" s="3"/>
+      <c r="L22" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="M22">
+        <v>1.621</v>
+      </c>
+      <c r="N22" s="3">
+        <v>324200</v>
+      </c>
+      <c r="O22" s="11">
+        <v>1136999.27</v>
+      </c>
+      <c r="P22" s="3">
+        <v>600000</v>
+      </c>
+      <c r="Q22">
+        <v>1.895</v>
+      </c>
+      <c r="R22" s="7">
         <v>2283815.87</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="7">
         <v>1728363.62</v>
       </c>
-      <c r="S22" s="1">
+      <c r="T22" s="15">
         <v>1.3214</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="6">
         <v>3745015.14</v>
@@ -2064,45 +2170,25 @@
       <c r="C23" s="7">
         <v>1074975.14</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="7">
+        <v>982270</v>
+      </c>
       <c r="E23" s="7">
-        <v>982270</v>
+        <v>709911</v>
       </c>
       <c r="F23" s="7">
-        <v>709911</v>
+        <v>309884</v>
       </c>
       <c r="G23" s="7">
-        <v>309884</v>
-      </c>
-      <c r="H23" s="7">
         <v>667975</v>
       </c>
+      <c r="H23" s="7"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="7"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="7">
-        <v>1461199.26</v>
-      </c>
-      <c r="O23" s="7">
-        <v>800000</v>
-      </c>
-      <c r="P23" s="12">
-        <v>1.8265</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>2283815.87</v>
-      </c>
-      <c r="R23" s="7">
-        <v>1728363.62</v>
-      </c>
-      <c r="S23" s="12">
-        <v>1.3214</v>
-      </c>
-      <c r="T23" s="5"/>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="U23" s="5"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24">
         <v>20170217</v>
       </c>
@@ -2112,189 +2198,342 @@
       <c r="C24" s="3">
         <v>1207899</v>
       </c>
+      <c r="D24" s="3">
+        <v>1006926</v>
+      </c>
       <c r="E24" s="3">
-        <v>1006926</v>
+        <v>722987</v>
       </c>
       <c r="F24" s="3">
-        <v>722987</v>
+        <v>310942</v>
       </c>
       <c r="G24" s="3">
+        <v>694072</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="L24" s="4">
+        <v>5.28</v>
+      </c>
+      <c r="M24">
+        <v>1.706</v>
+      </c>
+      <c r="N24" s="3">
+        <v>341200</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1233323.18</v>
+      </c>
+      <c r="P24" s="11">
+        <v>600000</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>2.0555</v>
+      </c>
+      <c r="R24" s="11">
+        <v>2368302.82</v>
+      </c>
+      <c r="S24" s="11">
+        <v>1728363.62</v>
+      </c>
+      <c r="T24" s="16">
+        <v>1.3703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25">
+        <v>20170219</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
+        <v>137036</v>
+      </c>
+      <c r="J25">
+        <v>66684.18</v>
+      </c>
+      <c r="K25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="U25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26">
+        <v>20170220</v>
+      </c>
+      <c r="B26" s="4">
+        <v>4107768.16</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1772831.16</v>
+      </c>
+      <c r="D26" s="3">
+        <v>806926</v>
+      </c>
+      <c r="E26" s="3">
+        <v>522987</v>
+      </c>
+      <c r="F26" s="3">
         <v>310942</v>
       </c>
-      <c r="H24" s="3">
+      <c r="G26" s="3">
         <v>694072</v>
       </c>
-      <c r="I24"/>
-      <c r="J24" s="3"/>
-      <c r="N24" s="13">
-        <v>1574523.18</v>
-      </c>
-      <c r="O24" s="13">
-        <v>800000</v>
-      </c>
-      <c r="P24" s="14">
-        <v>1.9682</v>
-      </c>
-      <c r="Q24" s="13">
-        <v>2368302.82</v>
-      </c>
-      <c r="R24" s="13">
-        <v>1728363.62</v>
-      </c>
-      <c r="S24" s="17">
+      <c r="H26" s="3"/>
+      <c r="I26">
+        <v>27906.16</v>
+      </c>
+      <c r="J26">
+        <v>20365</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="3">
+        <v>341200</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1370359.18</v>
+      </c>
+      <c r="P26">
+        <v>666684.18</v>
+      </c>
+      <c r="Q26">
+        <v>2.055</v>
+      </c>
+      <c r="R26" s="11">
+        <v>2396208.98</v>
+      </c>
+      <c r="S26" s="11">
+        <v>1748728.62</v>
+      </c>
+      <c r="T26" s="16">
         <v>1.3703</v>
       </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="9"/>
-      <c r="C25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="9"/>
-      <c r="C26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="U26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
       <c r="B27" s="9"/>
       <c r="C27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="D27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9">
+        <f>N26+O26+R26</f>
+        <v>4107768.16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
       <c r="B28" s="9"/>
       <c r="C28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="D28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="2:14">
       <c r="B29" s="9"/>
       <c r="C29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="D29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="2:14">
       <c r="B30" s="9"/>
       <c r="C30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="D30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="2:14">
       <c r="B31" s="9"/>
       <c r="C31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="D31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="2:14">
       <c r="B32" s="9"/>
       <c r="C32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="D32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="2:14">
       <c r="B33" s="9"/>
       <c r="C33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="D33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="2:14">
       <c r="B34" s="9"/>
       <c r="C34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="D34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="2:14">
       <c r="B35" s="9"/>
       <c r="C35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="D35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="2:14">
       <c r="B36" s="9"/>
       <c r="C36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="D36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="2:14">
       <c r="B37" s="9"/>
       <c r="C37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="D37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="2:14">
       <c r="B38" s="9"/>
       <c r="C38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="D38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="2:14">
       <c r="B39" s="9"/>
       <c r="C39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="D39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="2:14">
       <c r="B40" s="9"/>
       <c r="C40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="D40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="2:14">
       <c r="B41" s="9"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="H41" s="3"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="2:14">
       <c r="B42" s="9"/>
       <c r="C42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="D42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+    </row>
+    <row r="43" spans="2:14">
       <c r="B43" s="9"/>
       <c r="C43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="D43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="2:14">
       <c r="B44" s="9"/>
       <c r="C44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="D44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="2:14">
       <c r="B45" s="9"/>
       <c r="C45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="D45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="2:14">
       <c r="B46" s="9"/>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="H46" s="3"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="2:14">
       <c r="B47" s="9"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="H47" s="3"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="2:14">
       <c r="B48" s="9"/>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="H48" s="3"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="2:14">
       <c r="B49" s="9"/>
       <c r="C49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="51" spans="11:18">
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
+      <c r="D49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="12:14">
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="9:19">
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExplorerFund/NetValue/fund record.xlsx
+++ b/ExplorerFund/NetValue/fund record.xlsx
@@ -117,15 +117,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="180" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.0000_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -159,10 +159,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,7 +175,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,78 +274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,14 +289,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,55 +304,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,25 +466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,97 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,11 +498,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,73 +590,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,145 +603,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -785,10 +785,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1112,8 +1112,8 @@
   <sheetPr/>
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27:T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2318,16 +2318,55 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="9"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+    <row r="27" spans="1:20">
+      <c r="A27">
+        <v>20170220</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4226257</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1882701</v>
+      </c>
+      <c r="D27" s="3">
+        <v>832914</v>
+      </c>
+      <c r="E27" s="3">
+        <v>515736</v>
+      </c>
+      <c r="F27" s="3">
+        <v>327247</v>
+      </c>
+      <c r="G27" s="3">
+        <v>667659</v>
+      </c>
       <c r="H27" s="3"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9">
-        <f>N26+O26+R26</f>
-        <v>4107768.16</v>
+      <c r="L27" s="4">
+        <v>2.88</v>
+      </c>
+      <c r="M27">
+        <v>1.755</v>
+      </c>
+      <c r="N27" s="3">
+        <v>351000</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1430534.39</v>
+      </c>
+      <c r="P27">
+        <v>666684.18</v>
+      </c>
+      <c r="Q27">
+        <v>2.1457</v>
+      </c>
+      <c r="R27" s="11">
+        <v>2444722.61</v>
+      </c>
+      <c r="S27" s="11">
+        <v>1748728.62</v>
+      </c>
+      <c r="T27" s="1">
+        <v>1.398</v>
       </c>
     </row>
     <row r="28" spans="2:14">

--- a/ExplorerFund/NetValue/fund record.xlsx
+++ b/ExplorerFund/NetValue/fund record.xlsx
@@ -116,16 +116,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="11">
+    <numFmt numFmtId="176" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0.0000_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.0000_ "/>
+    <numFmt numFmtId="181" formatCode="0.0000_ "/>
+    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -152,15 +154,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,30 +182,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -219,9 +196,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,11 +211,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,28 +243,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,6 +256,46 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -304,6 +306,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -334,60 +480,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -395,96 +487,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,21 +497,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,17 +509,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,17 +529,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,11 +557,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,10 +605,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,186 +617,192 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1112,8 +1120,8 @@
   <sheetPr/>
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27:T27"/>
+    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1128,7 +1136,7 @@
     <col min="9" max="9" width="12.125" customWidth="1"/>
     <col min="10" max="10" width="12.75" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="13.375" customWidth="1"/>
     <col min="13" max="13" width="10.125" customWidth="1"/>
     <col min="14" max="14" width="13.75" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
@@ -1344,7 +1352,7 @@
       <c r="S4" s="3">
         <v>822018.44</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="15">
         <f>0.0868942855166899+1</f>
         <v>1.08689428551669</v>
       </c>
@@ -1370,9 +1378,9 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="P5" s="3"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="13">
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="15">
         <v>1.0869</v>
       </c>
       <c r="U5" t="s">
@@ -1477,7 +1485,7 @@
       <c r="S7" s="7">
         <v>958941.73</v>
       </c>
-      <c r="T7" s="15">
+      <c r="T7" s="17">
         <v>1.0955</v>
       </c>
       <c r="U7" s="5"/>
@@ -1809,7 +1817,7 @@
       <c r="S15" s="7">
         <v>1358019.5</v>
       </c>
-      <c r="T15" s="15">
+      <c r="T15" s="17">
         <v>1.2093</v>
       </c>
     </row>
@@ -2156,7 +2164,7 @@
       <c r="S22" s="7">
         <v>1728363.62</v>
       </c>
-      <c r="T22" s="15">
+      <c r="T22" s="17">
         <v>1.3214</v>
       </c>
     </row>
@@ -2226,7 +2234,7 @@
       <c r="P24" s="11">
         <v>600000</v>
       </c>
-      <c r="Q24" s="16">
+      <c r="Q24" s="18">
         <v>2.0555</v>
       </c>
       <c r="R24" s="11">
@@ -2235,7 +2243,7 @@
       <c r="S24" s="11">
         <v>1728363.62</v>
       </c>
-      <c r="T24" s="16">
+      <c r="T24" s="18">
         <v>1.3703</v>
       </c>
     </row>
@@ -2311,7 +2319,7 @@
       <c r="S26" s="11">
         <v>1748728.62</v>
       </c>
-      <c r="T26" s="16">
+      <c r="T26" s="18">
         <v>1.3703</v>
       </c>
       <c r="U26" t="s">
@@ -2320,7 +2328,7 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27">
-        <v>20170220</v>
+        <v>20170226</v>
       </c>
       <c r="B27" s="3">
         <v>4226257</v>
@@ -2369,14 +2377,56 @@
         <v>1.398</v>
       </c>
     </row>
-    <row r="28" spans="2:14">
-      <c r="B28" s="9"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+    <row r="28" spans="1:20">
+      <c r="A28">
+        <v>20170303</v>
+      </c>
+      <c r="B28" s="4">
+        <v>4190964</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1790428</v>
+      </c>
+      <c r="D28" s="3">
+        <v>854446</v>
+      </c>
+      <c r="E28">
+        <v>515398</v>
+      </c>
+      <c r="F28">
+        <v>325642</v>
+      </c>
+      <c r="G28">
+        <v>705050</v>
+      </c>
       <c r="H28" s="3"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
+      <c r="L28" s="12">
+        <v>-0.835</v>
+      </c>
+      <c r="M28" s="13">
+        <v>1.74</v>
+      </c>
+      <c r="N28" s="3">
+        <v>348000</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1418559.53</v>
+      </c>
+      <c r="P28">
+        <v>666684.18</v>
+      </c>
+      <c r="Q28">
+        <v>2.1278</v>
+      </c>
+      <c r="R28" s="11">
+        <v>2424262.49</v>
+      </c>
+      <c r="S28" s="11">
+        <v>1748728.62</v>
+      </c>
+      <c r="T28" s="1">
+        <v>1.3863</v>
+      </c>
     </row>
     <row r="29" spans="2:14">
       <c r="B29" s="9"/>
@@ -2565,14 +2615,14 @@
       <c r="N50" s="9"/>
     </row>
     <row r="51" spans="9:19">
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExplorerFund/NetValue/fund record.xlsx
+++ b/ExplorerFund/NetValue/fund record.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>日期</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 股东权益</t>
+  </si>
+  <si>
+    <t>1.483,961.03</t>
   </si>
 </sst>
 </file>
@@ -117,16 +120,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="180" formatCode="#,##0.0000_ "/>
-    <numFmt numFmtId="181" formatCode="0.0000_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
     <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="22">
@@ -154,14 +157,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,6 +186,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -196,8 +224,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,18 +240,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,7 +265,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,46 +299,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -306,6 +309,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -324,24 +459,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -354,48 +471,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -415,78 +490,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,6 +500,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,11 +527,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,6 +553,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,43 +592,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,192 +620,204 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1120,8 +1135,8 @@
   <sheetPr/>
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1173,7 +1188,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1352,7 +1367,7 @@
       <c r="S4" s="3">
         <v>822018.44</v>
       </c>
-      <c r="T4" s="15">
+      <c r="T4" s="13">
         <f>0.0868942855166899+1</f>
         <v>1.08689428551669</v>
       </c>
@@ -1378,9 +1393,9 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="P5" s="3"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="15">
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="13">
         <v>1.0869</v>
       </c>
       <c r="U5" t="s">
@@ -1461,7 +1476,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="6">
+      <c r="L7" s="12">
         <v>13.97</v>
       </c>
       <c r="M7">
@@ -1485,10 +1500,13 @@
       <c r="S7" s="7">
         <v>958941.73</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T7" s="21">
         <v>1.0955</v>
       </c>
       <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="12:12">
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:20">
       <c r="A9">
@@ -1500,7 +1518,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="L9" s="4">
+      <c r="L9" s="13">
         <v>2.148</v>
       </c>
       <c r="M9">
@@ -1548,7 +1566,7 @@
       <c r="G10" s="3">
         <v>430479.94</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="13">
         <v>4.39</v>
       </c>
       <c r="M10">
@@ -1603,7 +1621,7 @@
       <c r="J11" s="3">
         <v>272409.98</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="13">
         <v>3.56</v>
       </c>
       <c r="M11">
@@ -1655,7 +1673,7 @@
         <v>449593.74</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="L12" s="4"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="3"/>
@@ -1701,7 +1719,7 @@
       <c r="J13" s="3">
         <v>126667.79</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="13">
         <v>1.15</v>
       </c>
       <c r="M13">
@@ -1752,6 +1770,7 @@
       <c r="G14" s="3">
         <v>452487.27</v>
       </c>
+      <c r="L14" s="13"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3">
         <v>600000</v>
@@ -1793,7 +1812,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15">
+      <c r="L15" s="13">
         <v>3.031</v>
       </c>
       <c r="M15">
@@ -1817,7 +1836,7 @@
       <c r="S15" s="7">
         <v>1358019.5</v>
       </c>
-      <c r="T15" s="17">
+      <c r="T15" s="21">
         <v>1.2093</v>
       </c>
     </row>
@@ -1847,6 +1866,7 @@
       <c r="J16" s="3">
         <v>124038.7</v>
       </c>
+      <c r="L16" s="13"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3">
         <v>600000</v>
@@ -1888,6 +1908,7 @@
         <v>606768.19</v>
       </c>
       <c r="H17" s="3"/>
+      <c r="L17" s="13"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3">
         <v>600000</v>
@@ -1931,7 +1952,7 @@
       <c r="J18" s="3">
         <v>246305.42</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="13">
         <v>1.01</v>
       </c>
       <c r="M18">
@@ -1992,6 +2013,7 @@
         <f>SUM(J3:J18)</f>
         <v>1728363.62</v>
       </c>
+      <c r="L19" s="13"/>
       <c r="M19">
         <v>1.4439</v>
       </c>
@@ -2038,7 +2060,7 @@
         <v>622075.71</v>
       </c>
       <c r="H20" s="3"/>
-      <c r="L20" s="4">
+      <c r="L20" s="13">
         <v>3.31</v>
       </c>
       <c r="M20">
@@ -2089,7 +2111,7 @@
         <v>656204.31</v>
       </c>
       <c r="H21" s="3"/>
-      <c r="L21" s="4">
+      <c r="L21" s="13">
         <v>5.19</v>
       </c>
       <c r="M21">
@@ -2140,7 +2162,7 @@
         <v>667975</v>
       </c>
       <c r="H22" s="3"/>
-      <c r="L22" s="4">
+      <c r="L22" s="13">
         <v>3.3</v>
       </c>
       <c r="M22">
@@ -2149,7 +2171,7 @@
       <c r="N22" s="3">
         <v>324200</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="14">
         <v>1136999.27</v>
       </c>
       <c r="P22" s="3">
@@ -2164,7 +2186,7 @@
       <c r="S22" s="7">
         <v>1728363.62</v>
       </c>
-      <c r="T22" s="17">
+      <c r="T22" s="21">
         <v>1.3214</v>
       </c>
     </row>
@@ -2194,6 +2216,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
+      <c r="L23" s="13"/>
       <c r="U23" s="5"/>
     </row>
     <row r="24" spans="1:20">
@@ -2219,7 +2242,7 @@
         <v>694072</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="L24" s="4">
+      <c r="L24" s="13">
         <v>5.28</v>
       </c>
       <c r="M24">
@@ -2231,19 +2254,19 @@
       <c r="O24" s="3">
         <v>1233323.18</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="14">
         <v>600000</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24" s="22">
         <v>2.0555</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R24" s="14">
         <v>2368302.82</v>
       </c>
-      <c r="S24" s="11">
+      <c r="S24" s="14">
         <v>1728363.62</v>
       </c>
-      <c r="T24" s="18">
+      <c r="T24" s="22">
         <v>1.3703</v>
       </c>
     </row>
@@ -2261,7 +2284,7 @@
       <c r="K25" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="4"/>
+      <c r="L25" s="13"/>
       <c r="M25" s="4"/>
       <c r="U25" t="s">
         <v>23</v>
@@ -2299,7 +2322,7 @@
       <c r="K26" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="4"/>
+      <c r="L26" s="13"/>
       <c r="M26" s="4"/>
       <c r="N26" s="3">
         <v>341200</v>
@@ -2313,13 +2336,13 @@
       <c r="Q26">
         <v>2.055</v>
       </c>
-      <c r="R26" s="11">
+      <c r="R26" s="14">
         <v>2396208.98</v>
       </c>
-      <c r="S26" s="11">
+      <c r="S26" s="14">
         <v>1748728.62</v>
       </c>
-      <c r="T26" s="18">
+      <c r="T26" s="22">
         <v>1.3703</v>
       </c>
       <c r="U26" t="s">
@@ -2349,7 +2372,7 @@
         <v>667659</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="L27" s="4">
+      <c r="L27" s="13">
         <v>2.88</v>
       </c>
       <c r="M27">
@@ -2367,10 +2390,10 @@
       <c r="Q27">
         <v>2.1457</v>
       </c>
-      <c r="R27" s="11">
+      <c r="R27" s="14">
         <v>2444722.61</v>
       </c>
-      <c r="S27" s="11">
+      <c r="S27" s="14">
         <v>1748728.62</v>
       </c>
       <c r="T27" s="1">
@@ -2390,20 +2413,20 @@
       <c r="D28" s="3">
         <v>854446</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="9">
         <v>515398</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="9">
         <v>325642</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="9">
         <v>705050</v>
       </c>
       <c r="H28" s="3"/>
-      <c r="L28" s="12">
+      <c r="L28" s="13">
         <v>-0.835</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="15">
         <v>1.74</v>
       </c>
       <c r="N28" s="3">
@@ -2418,211 +2441,282 @@
       <c r="Q28">
         <v>2.1278</v>
       </c>
-      <c r="R28" s="11">
+      <c r="R28" s="14">
         <v>2424262.49</v>
       </c>
-      <c r="S28" s="11">
+      <c r="S28" s="14">
         <v>1748728.62</v>
       </c>
       <c r="T28" s="1">
         <v>1.3863</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
-      <c r="B29" s="9"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+    <row r="29" spans="1:20">
+      <c r="A29">
+        <v>201703017</v>
+      </c>
+      <c r="B29" s="3">
+        <f>C29+D29+E29+F29+D31+G29</f>
+        <v>4231191</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1128589</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1166835</v>
+      </c>
+      <c r="E29" s="9">
+        <v>829521</v>
+      </c>
+      <c r="F29" s="9">
+        <v>331121</v>
+      </c>
+      <c r="G29" s="9">
+        <v>775125</v>
+      </c>
       <c r="H29" s="3"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="2:14">
-      <c r="B30" s="9"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
+      <c r="L29" s="13">
+        <v>0.1167</v>
+      </c>
+      <c r="M29" s="16">
+        <v>1.757</v>
+      </c>
+      <c r="N29" s="10"/>
+      <c r="Q29">
+        <v>2.1482</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1.3996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30">
+        <v>20170324</v>
+      </c>
+      <c r="B30" s="3">
+        <f>SUM(C30:G30)</f>
+        <v>4330508</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1125254</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1199443</v>
+      </c>
+      <c r="E30" s="9">
+        <v>840362</v>
+      </c>
+      <c r="F30" s="9">
+        <v>333994</v>
+      </c>
+      <c r="G30" s="9">
+        <v>831455</v>
+      </c>
+      <c r="L30" s="13">
+        <v>2.4667</v>
+      </c>
+      <c r="M30" s="17">
+        <v>1.7983</v>
+      </c>
+      <c r="N30" s="10">
+        <v>359660</v>
+      </c>
+      <c r="O30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30">
+        <v>666684.18</v>
+      </c>
+      <c r="Q30">
+        <v>2.2259</v>
+      </c>
+      <c r="R30" s="3">
+        <v>2486866.97</v>
+      </c>
+      <c r="S30" s="14">
+        <v>1748728.62</v>
+      </c>
+      <c r="T30" s="1">
+        <v>1.4221</v>
+      </c>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="9"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="9"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="9"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="9"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="9"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="9"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="9"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
     </row>
     <row r="38" spans="2:14">
-      <c r="B38" s="9"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
     </row>
     <row r="39" spans="2:14">
-      <c r="B39" s="9"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="9"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="9"/>
+      <c r="B41" s="10"/>
       <c r="H41" s="3"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="9"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="9"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="9"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="9"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="9"/>
+      <c r="B46" s="10"/>
       <c r="H46" s="3"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="9"/>
+      <c r="B47" s="10"/>
       <c r="H47" s="3"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="9"/>
+      <c r="B48" s="10"/>
       <c r="H48" s="3"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
     </row>
     <row r="49" spans="2:14">
-      <c r="B49" s="9"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
     </row>
     <row r="50" spans="12:14">
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
     </row>
     <row r="51" spans="9:19">
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExplorerFund/NetValue/fund record.xlsx
+++ b/ExplorerFund/NetValue/fund record.xlsx
@@ -120,15 +120,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="180" formatCode="0.0000_ "/>
     <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
     <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
@@ -763,34 +763,34 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -805,8 +805,8 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1135,8 +1135,8 @@
   <sheetPr/>
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView tabSelected="1" topLeftCell="K10" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2456,7 +2456,7 @@
         <v>201703017</v>
       </c>
       <c r="B29" s="3">
-        <f>C29+D29+E29+F29+D31+G29</f>
+        <f t="shared" ref="B29:B31" si="1">SUM(C29:G29)</f>
         <v>4231191</v>
       </c>
       <c r="C29" s="3">
@@ -2474,7 +2474,6 @@
       <c r="G29" s="9">
         <v>775125</v>
       </c>
-      <c r="H29" s="3"/>
       <c r="L29" s="13">
         <v>0.1167</v>
       </c>
@@ -2494,7 +2493,7 @@
         <v>20170324</v>
       </c>
       <c r="B30" s="3">
-        <f>SUM(C30:G30)</f>
+        <f t="shared" si="1"/>
         <v>4330508</v>
       </c>
       <c r="C30" s="3">
@@ -2518,10 +2517,10 @@
       <c r="M30" s="17">
         <v>1.7983</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="4">
         <v>359660</v>
       </c>
-      <c r="O30" s="18" t="s">
+      <c r="O30" s="16" t="s">
         <v>32</v>
       </c>
       <c r="P30">
@@ -2540,30 +2539,114 @@
         <v>1.4221</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
-      <c r="B31" s="10"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="B32" s="10"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
+    <row r="31" spans="1:20">
+      <c r="A31">
+        <v>20170331</v>
+      </c>
+      <c r="B31" s="3">
+        <f t="shared" si="1"/>
+        <v>4445190</v>
+      </c>
+      <c r="C31" s="3">
+        <v>549872</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1531988</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1134817</v>
+      </c>
+      <c r="F31" s="9">
+        <v>341227</v>
+      </c>
+      <c r="G31" s="9">
+        <v>887286</v>
+      </c>
+      <c r="L31" s="18">
+        <v>2.6482</v>
+      </c>
+      <c r="M31" s="18">
+        <v>1.8459</v>
+      </c>
+      <c r="N31" s="4">
+        <v>369180</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1542454.59</v>
+      </c>
+      <c r="P31">
+        <v>666684.18</v>
+      </c>
+      <c r="Q31">
+        <v>2.3136</v>
+      </c>
+      <c r="R31" s="3">
+        <v>2533555.41</v>
+      </c>
+      <c r="S31" s="14">
+        <v>1748728.62</v>
+      </c>
+      <c r="T31" s="1">
+        <v>1.4488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32">
+        <v>20170407</v>
+      </c>
+      <c r="B32" s="3">
+        <f>SUM(C32:G32)</f>
+        <v>4607171</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1082128</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1621269</v>
+      </c>
+      <c r="E32" s="3">
+        <v>633138</v>
+      </c>
+      <c r="F32" s="9">
+        <v>349038</v>
+      </c>
+      <c r="G32" s="9">
+        <v>921598</v>
+      </c>
+      <c r="L32" s="18">
+        <v>3.644</v>
+      </c>
+      <c r="M32" s="18">
+        <v>1.9132</v>
+      </c>
+      <c r="N32" s="4">
+        <v>382640</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1626348</v>
+      </c>
+      <c r="P32">
+        <v>666684.18</v>
+      </c>
+      <c r="Q32">
+        <v>2.4395</v>
+      </c>
+      <c r="R32" s="3">
+        <v>2598183.33</v>
+      </c>
+      <c r="S32" s="14">
+        <v>1748728.62</v>
+      </c>
+      <c r="T32" s="1">
+        <v>1.4858</v>
+      </c>
     </row>
     <row r="33" spans="2:14">
       <c r="B33" s="10"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="L33" s="10"/>
+      <c r="L33" s="18"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
     </row>
@@ -2572,7 +2655,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="L34" s="10"/>
+      <c r="L34" s="18"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
     </row>
@@ -2581,7 +2664,7 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="L35" s="10"/>
+      <c r="L35" s="18"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
     </row>
@@ -2590,7 +2673,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="L36" s="10"/>
+      <c r="L36" s="18"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
     </row>

--- a/ExplorerFund/NetValue/fund record.xlsx
+++ b/ExplorerFund/NetValue/fund record.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>日期</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>上期顾85</t>
+  </si>
+  <si>
+    <t>上期09</t>
   </si>
   <si>
     <t>郑商日盘权益</t>
@@ -120,17 +123,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="178" formatCode="#,##0.0000_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="180" formatCode="0.0000_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
-    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="181" formatCode="0.00_ "/>
+    <numFmt numFmtId="182" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -158,29 +161,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +197,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -224,19 +227,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,17 +280,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,21 +302,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -309,24 +312,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,19 +354,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,7 +456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,67 +468,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,48 +493,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,6 +531,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -556,50 +603,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -608,10 +611,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,133 +623,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -754,7 +757,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -763,13 +766,13 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -778,7 +781,7 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -787,37 +790,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1133,10 +1136,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1145,25 +1148,25 @@
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="3" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="12" max="12" width="13.375" customWidth="1"/>
-    <col min="13" max="13" width="10.125" customWidth="1"/>
-    <col min="14" max="14" width="13.75" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="13.25" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="14.375" customWidth="1"/>
-    <col min="19" max="19" width="14.5" customWidth="1"/>
-    <col min="20" max="20" width="13.125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.75" customWidth="1"/>
+    <col min="6" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="13.375" customWidth="1"/>
+    <col min="14" max="14" width="10.125" customWidth="1"/>
+    <col min="15" max="15" width="13.75" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="13.25" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="14.375" customWidth="1"/>
+    <col min="20" max="20" width="14.5" customWidth="1"/>
+    <col min="21" max="21" width="13.125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1188,10 +1191,10 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -1221,59 +1224,62 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="2">
         <v>42614</v>
       </c>
       <c r="B2" s="3">
         <v>800000</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3">
+      <c r="K2" s="3"/>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3">
         <v>1</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>200000</v>
-      </c>
-      <c r="O2" s="3">
-        <v>600000</v>
       </c>
       <c r="P2" s="3">
         <v>600000</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
+        <v>600000</v>
+      </c>
+      <c r="R2">
         <v>1</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2">
         <v>0</v>
       </c>
-      <c r="U2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>20161110</v>
       </c>
       <c r="B3" s="4">
-        <f>C3+D3+H3-I3</f>
+        <f>C3+D3+I3-J3</f>
         <v>865702.65</v>
       </c>
       <c r="C3" s="3">
@@ -1282,55 +1288,55 @@
       <c r="D3" s="3">
         <v>968426.71</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>199219</v>
-      </c>
-      <c r="I3" s="3">
-        <v>500000</v>
       </c>
       <c r="J3" s="3">
         <v>500000</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="4">
+      <c r="K3" s="3">
+        <v>500000</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="4">
         <v>8.21</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1.0821</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="3">
         <v>216240</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>665702.65</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3" s="3">
         <v>600000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>1.0821</v>
-      </c>
-      <c r="R3" s="3">
-        <v>500000</v>
       </c>
       <c r="S3" s="3">
         <v>500000</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="3">
+        <v>500000</v>
+      </c>
+      <c r="U3" s="1">
         <v>1</v>
       </c>
-      <c r="U3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>20161124</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:B7" si="0">C4+D4+G4</f>
+        <f t="shared" ref="B4:B7" si="0">C4+D4+H4</f>
         <v>1535233.73</v>
       </c>
       <c r="C4" s="3">
@@ -1339,70 +1345,70 @@
       <c r="D4" s="3">
         <v>1152116.03</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>204390.36</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>250000</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>230013.17</v>
       </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="4"/>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3">
+      <c r="O4" s="4"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3">
         <v>600000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1.2397</v>
       </c>
-      <c r="R4" s="3">
+      <c r="S4" s="3">
         <v>893447.14</v>
       </c>
-      <c r="S4" s="3">
+      <c r="T4" s="3">
         <v>822018.44</v>
       </c>
-      <c r="T4" s="13">
+      <c r="U4" s="13">
         <f>0.0868942855166899+1</f>
         <v>1.08689428551669</v>
       </c>
-      <c r="U4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21">
+      <c r="V4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="I5" s="3">
+      <c r="H5" s="3"/>
+      <c r="J5" s="3">
         <v>100000</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>92004.78</v>
       </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="4"/>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="P5" s="3"/>
-      <c r="R5" s="20"/>
+      <c r="O5" s="4"/>
+      <c r="Q5" s="3"/>
       <c r="S5" s="20"/>
-      <c r="T5" s="13">
+      <c r="T5" s="20"/>
+      <c r="U5" s="13">
         <v>1.0869</v>
       </c>
-      <c r="U5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>20161125</v>
       </c>
@@ -1416,46 +1422,46 @@
       <c r="D6" s="3">
         <v>1171939.74</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>555404.3</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>150000</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>136923.78</v>
       </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="4"/>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="7">
+      <c r="O6" s="4"/>
+      <c r="P6" s="7">
         <v>759427.94</v>
       </c>
-      <c r="P6" s="3">
+      <c r="Q6" s="3">
         <v>600000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1.2657</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
         <v>1050517.06</v>
       </c>
-      <c r="S6" s="3">
+      <c r="T6" s="3">
         <v>958941.73</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>1.0955</v>
       </c>
-      <c r="U6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
@@ -1469,46 +1475,47 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="7">
+      <c r="G7" s="5"/>
+      <c r="H7" s="7">
         <v>555404.3</v>
       </c>
-      <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="12">
+      <c r="L7" s="5"/>
+      <c r="M7" s="12">
         <v>13.97</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1.2333</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>246600</v>
       </c>
-      <c r="O7" s="7">
+      <c r="P7" s="7">
         <v>759427.94</v>
       </c>
-      <c r="P7" s="7">
+      <c r="Q7" s="7">
         <v>600000</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="5">
         <v>1.2657</v>
       </c>
-      <c r="R7" s="7">
+      <c r="S7" s="7">
         <v>1050517.06</v>
       </c>
-      <c r="S7" s="7">
+      <c r="T7" s="7">
         <v>958941.73</v>
       </c>
-      <c r="T7" s="21">
+      <c r="U7" s="21">
         <v>1.0955</v>
       </c>
-      <c r="U7" s="5"/>
-    </row>
-    <row r="8" spans="12:12">
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="13:13">
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>20161203</v>
       </c>
@@ -1517,36 +1524,36 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="L9" s="13">
+      <c r="H9" s="3"/>
+      <c r="M9" s="13">
         <v>2.148</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1.2598</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>251960</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>782433</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>600000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1.304</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1066343.2</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>958941.73</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>1.111978</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>20161217</v>
       </c>
@@ -1563,38 +1570,39 @@
         <v>339129.38</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
         <v>430479.94</v>
       </c>
-      <c r="L10" s="13">
+      <c r="M10" s="13">
         <v>4.39</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1.3151</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>263020</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>830839</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>600000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1.3846</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1099139.01</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>958941.73</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <v>1.1462</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>20161226</v>
       </c>
@@ -1611,50 +1619,51 @@
         <v>374987.39</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
         <v>449593.74</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3">
         <v>320000</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>272409.98</v>
       </c>
-      <c r="L11" s="13">
+      <c r="M11" s="13">
         <v>3.56</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1.3619</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>272380</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>872133.28</v>
       </c>
-      <c r="P11" s="3">
+      <c r="Q11" s="3">
         <v>600000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1.4535</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <v>1126509.64</v>
       </c>
-      <c r="S11" s="3">
+      <c r="T11" s="3">
         <v>958941.73</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <v>1.1747</v>
       </c>
-      <c r="U11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="V11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4">
         <v>2591012.92</v>
@@ -1669,31 +1678,32 @@
         <v>694987.39</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
         <v>449593.74</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="4"/>
+      <c r="K12" s="3"/>
+      <c r="M12" s="13"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3">
+      <c r="O12" s="4"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3">
         <v>600000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>1.4535</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1446509.64</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1231351.71</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <v>1.1747</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>20161227</v>
       </c>
@@ -1710,49 +1720,50 @@
         <v>696387.43</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
         <v>452487.27</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>150000</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>126667.79</v>
       </c>
-      <c r="L13" s="13">
+      <c r="M13" s="13">
         <v>1.15</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1.3775</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="3">
         <v>275500</v>
       </c>
-      <c r="O13" s="3">
+      <c r="P13" s="3">
         <v>887268.97</v>
       </c>
-      <c r="P13" s="3">
+      <c r="Q13" s="3">
         <v>600000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1.4787</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S13" s="3">
         <v>1458159.32</v>
       </c>
-      <c r="S13" s="3">
+      <c r="T13" s="3">
         <v>1231351.71</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <v>1.1842</v>
       </c>
-      <c r="U13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="V13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="4">
         <v>2770928.29</v>
@@ -1767,28 +1778,29 @@
         <v>696387.43</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
         <v>452487.27</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3">
+      <c r="M14" s="13"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3">
         <v>600000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1.4787</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1608159.32</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1358019.5</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U14" s="1">
         <v>1.1842</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15" s="5">
         <v>20161230</v>
       </c>
@@ -1805,42 +1817,43 @@
         <v>712025.26</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="7">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7">
         <v>456768.19</v>
       </c>
-      <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="13">
+      <c r="L15" s="5"/>
+      <c r="M15" s="13">
         <v>3.031</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1.4293</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>285860</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>926969.44</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>600000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1.5446</v>
       </c>
-      <c r="R15" s="7">
+      <c r="S15" s="7">
         <v>1642288.17</v>
       </c>
-      <c r="S15" s="7">
+      <c r="T15" s="7">
         <v>1358019.5</v>
       </c>
-      <c r="T15" s="21">
+      <c r="U15" s="21">
         <v>1.2093</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:22">
       <c r="A16" s="8">
         <v>42372</v>
       </c>
@@ -1857,39 +1870,40 @@
         <v>712025.26</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
         <v>456768.19</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>150000</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>124038.7</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3">
+      <c r="M16" s="13"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3">
         <v>600000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1.5446</v>
       </c>
-      <c r="R16" s="3">
+      <c r="S16" s="3">
         <v>1642288.17</v>
       </c>
-      <c r="S16" s="3">
+      <c r="T16" s="3">
         <v>1358019.5</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="1">
         <v>1.2093</v>
       </c>
-      <c r="U16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="V16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="4">
         <v>3004917.61</v>
@@ -1904,26 +1918,27 @@
         <v>712025.26</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
         <v>606768.19</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="L17" s="13"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3">
+      <c r="I17" s="3"/>
+      <c r="M17" s="13"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3">
         <v>600000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1792288.17</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1482058.2</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <v>1.2093</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>20170105</v>
       </c>
@@ -1940,52 +1955,53 @@
         <v>712553.22</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>609130.41</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K18" s="3">
+        <v>246305.42</v>
+      </c>
+      <c r="M18" s="13">
+        <v>1.01</v>
+      </c>
+      <c r="N18">
+        <v>1.4439</v>
+      </c>
+      <c r="O18" s="3">
+        <v>288780</v>
+      </c>
+      <c r="P18" s="3">
+        <v>941772.72</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>600000</v>
+      </c>
+      <c r="R18">
+        <v>1.5696</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1805074.48</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1482058.2</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1.218</v>
+      </c>
+      <c r="V18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" t="s">
         <v>27</v>
-      </c>
-      <c r="G18" s="3">
-        <v>609130.41</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3">
-        <v>300000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>246305.42</v>
-      </c>
-      <c r="L18" s="13">
-        <v>1.01</v>
-      </c>
-      <c r="M18">
-        <v>1.4439</v>
-      </c>
-      <c r="N18" s="3">
-        <v>288780</v>
-      </c>
-      <c r="O18" s="3">
-        <v>941772.72</v>
-      </c>
-      <c r="P18" s="3">
-        <v>600000</v>
-      </c>
-      <c r="Q18">
-        <v>1.5696</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1805074.48</v>
-      </c>
-      <c r="S18" s="3">
-        <v>1482058.2</v>
-      </c>
-      <c r="T18" s="1">
-        <v>1.218</v>
-      </c>
-      <c r="U18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>26</v>
       </c>
       <c r="B19" s="4">
         <v>3335627.2</v>
@@ -2002,42 +2018,43 @@
       <c r="F19" s="3">
         <v>300000</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
         <v>609130.41</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="3">
-        <f>SUM(J3:J18)</f>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="3">
+        <f>SUM(K3:K18)</f>
         <v>1728363.62</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19">
+      <c r="M19" s="13"/>
+      <c r="N19">
         <v>1.4439</v>
       </c>
-      <c r="N19" s="3">
+      <c r="O19" s="3">
         <v>288780</v>
       </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3">
         <v>600000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>1.5696</v>
       </c>
-      <c r="R19" s="3">
+      <c r="S19" s="3">
         <v>2105074.48</v>
       </c>
-      <c r="S19" s="3">
+      <c r="T19" s="3">
         <v>1728363.62</v>
       </c>
-      <c r="T19" s="1">
+      <c r="U19" s="1">
         <v>1.218</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:21">
       <c r="A20">
         <v>20170116</v>
       </c>
@@ -2056,39 +2073,40 @@
       <c r="F20" s="3">
         <v>299873.39</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
         <v>622075.71</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="L20" s="13">
+      <c r="I20" s="3"/>
+      <c r="M20" s="13">
         <v>3.31</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1.4917</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>298340</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>993927.03</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>600000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>1.6565</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2153886.74</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1728363.62</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
         <v>1.2462</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:21">
       <c r="A21">
         <v>20170120</v>
       </c>
@@ -2107,39 +2125,40 @@
       <c r="F21" s="3">
         <v>304684.16</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
         <v>656204.31</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="L21" s="13">
+      <c r="I21" s="3"/>
+      <c r="M21" s="13">
         <v>5.19</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>1.5692</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>313840</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1079149.46</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>600000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>1.7985</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2232229.05</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1728363.62</v>
       </c>
-      <c r="T21" s="1">
+      <c r="U21" s="1">
         <v>1.2915</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:21">
       <c r="A22">
         <v>20170126</v>
       </c>
@@ -2158,41 +2177,42 @@
       <c r="F22" s="3">
         <v>309884</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
         <v>667975</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="L22" s="13">
+      <c r="I22" s="3"/>
+      <c r="M22" s="13">
         <v>3.3</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>1.621</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>324200</v>
       </c>
-      <c r="O22" s="14">
+      <c r="P22" s="14">
         <v>1136999.27</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>600000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>1.895</v>
       </c>
-      <c r="R22" s="7">
+      <c r="S22" s="7">
         <v>2283815.87</v>
       </c>
-      <c r="S22" s="7">
+      <c r="T22" s="7">
         <v>1728363.62</v>
       </c>
-      <c r="T22" s="21">
+      <c r="U22" s="21">
         <v>1.3214</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:22">
       <c r="A23" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="6">
         <v>3745015.14</v>
@@ -2209,17 +2229,18 @@
       <c r="F23" s="7">
         <v>309884</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7">
         <v>667975</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="5"/>
+      <c r="I23" s="7"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="13"/>
-      <c r="U23" s="5"/>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="L23" s="5"/>
+      <c r="M23" s="13"/>
+      <c r="V23" s="5"/>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24">
         <v>20170217</v>
       </c>
@@ -2238,59 +2259,60 @@
       <c r="F24" s="3">
         <v>310942</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
         <v>694072</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="L24" s="13">
+      <c r="I24" s="3"/>
+      <c r="M24" s="13">
         <v>5.28</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1.706</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>341200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1233323.18</v>
       </c>
-      <c r="P24" s="14">
+      <c r="Q24" s="14">
         <v>600000</v>
       </c>
-      <c r="Q24" s="22">
+      <c r="R24" s="22">
         <v>2.0555</v>
       </c>
-      <c r="R24" s="14">
+      <c r="S24" s="14">
         <v>2368302.82</v>
       </c>
-      <c r="S24" s="14">
+      <c r="T24" s="14">
         <v>1728363.62</v>
       </c>
-      <c r="T24" s="22">
+      <c r="U24" s="22">
         <v>1.3703</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:22">
       <c r="A25">
         <v>20170219</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3">
         <v>137036</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>66684.18</v>
       </c>
-      <c r="K25" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="4"/>
-      <c r="U25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="13"/>
+      <c r="N25" s="4"/>
+      <c r="V25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26">
         <v>20170220</v>
       </c>
@@ -2309,47 +2331,48 @@
       <c r="F26" s="3">
         <v>310942</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
         <v>694072</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26">
+      <c r="I26" s="3"/>
+      <c r="J26">
         <v>27906.16</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>20365</v>
       </c>
-      <c r="K26" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="3">
+      <c r="L26" t="s">
+        <v>18</v>
+      </c>
+      <c r="M26" s="13"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="3">
         <v>341200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1370359.18</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>666684.18</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>2.055</v>
       </c>
-      <c r="R26" s="14">
+      <c r="S26" s="14">
         <v>2396208.98</v>
       </c>
-      <c r="S26" s="14">
+      <c r="T26" s="14">
         <v>1748728.62</v>
       </c>
-      <c r="T26" s="22">
+      <c r="U26" s="22">
         <v>1.3703</v>
       </c>
-      <c r="U26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="V26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27">
         <v>20170226</v>
       </c>
@@ -2368,39 +2391,40 @@
       <c r="F27" s="3">
         <v>327247</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
         <v>667659</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="L27" s="13">
+      <c r="I27" s="3"/>
+      <c r="M27" s="13">
         <v>2.88</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1.755</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>351000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1430534.39</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>666684.18</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>2.1457</v>
       </c>
-      <c r="R27" s="14">
+      <c r="S27" s="14">
         <v>2444722.61</v>
       </c>
-      <c r="S27" s="14">
+      <c r="T27" s="14">
         <v>1748728.62</v>
       </c>
-      <c r="T27" s="1">
+      <c r="U27" s="1">
         <v>1.398</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:21">
       <c r="A28">
         <v>20170303</v>
       </c>
@@ -2419,44 +2443,45 @@
       <c r="F28" s="9">
         <v>325642</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="9"/>
+      <c r="H28" s="9">
         <v>705050</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="L28" s="13">
+      <c r="I28" s="3"/>
+      <c r="M28" s="13">
         <v>-0.835</v>
       </c>
-      <c r="M28" s="15">
+      <c r="N28" s="15">
         <v>1.74</v>
       </c>
-      <c r="N28" s="3">
+      <c r="O28" s="3">
         <v>348000</v>
       </c>
-      <c r="O28" s="3">
+      <c r="P28" s="3">
         <v>1418559.53</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>666684.18</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>2.1278</v>
       </c>
-      <c r="R28" s="14">
+      <c r="S28" s="14">
         <v>2424262.49</v>
       </c>
-      <c r="S28" s="14">
+      <c r="T28" s="14">
         <v>1748728.62</v>
       </c>
-      <c r="T28" s="1">
+      <c r="U28" s="1">
         <v>1.3863</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:21">
       <c r="A29">
         <v>201703017</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" ref="B29:B31" si="1">SUM(C29:G29)</f>
+        <f>SUM(C29:H29)</f>
         <v>4231191</v>
       </c>
       <c r="C29" s="3">
@@ -2471,29 +2496,30 @@
       <c r="F29" s="9">
         <v>331121</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="9"/>
+      <c r="H29" s="9">
         <v>775125</v>
       </c>
-      <c r="L29" s="13">
+      <c r="M29" s="13">
         <v>0.1167</v>
       </c>
-      <c r="M29" s="16">
+      <c r="N29" s="16">
         <v>1.757</v>
       </c>
-      <c r="N29" s="10"/>
-      <c r="Q29">
+      <c r="O29" s="10"/>
+      <c r="R29">
         <v>2.1482</v>
       </c>
-      <c r="T29" s="1">
+      <c r="U29" s="1">
         <v>1.3996</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:21">
       <c r="A30">
         <v>20170324</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" si="1"/>
+        <f>SUM(C30:H30)</f>
         <v>4330508</v>
       </c>
       <c r="C30" s="3">
@@ -2508,43 +2534,44 @@
       <c r="F30" s="9">
         <v>333994</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="9"/>
+      <c r="H30" s="9">
         <v>831455</v>
       </c>
-      <c r="L30" s="13">
+      <c r="M30" s="13">
         <v>2.4667</v>
       </c>
-      <c r="M30" s="17">
+      <c r="N30" s="17">
         <v>1.7983</v>
       </c>
-      <c r="N30" s="4">
+      <c r="O30" s="4">
         <v>359660</v>
       </c>
-      <c r="O30" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P30">
+      <c r="P30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30">
         <v>666684.18</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>2.2259</v>
       </c>
-      <c r="R30" s="3">
+      <c r="S30" s="3">
         <v>2486866.97</v>
       </c>
-      <c r="S30" s="14">
+      <c r="T30" s="14">
         <v>1748728.62</v>
       </c>
-      <c r="T30" s="1">
+      <c r="U30" s="1">
         <v>1.4221</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:21">
       <c r="A31">
         <v>20170331</v>
       </c>
       <c r="B31" s="3">
-        <f t="shared" si="1"/>
+        <f>SUM(C31:H31)</f>
         <v>4445190</v>
       </c>
       <c r="C31" s="3">
@@ -2559,43 +2586,44 @@
       <c r="F31" s="9">
         <v>341227</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="9"/>
+      <c r="H31" s="9">
         <v>887286</v>
       </c>
-      <c r="L31" s="18">
+      <c r="M31" s="18">
         <v>2.6482</v>
       </c>
-      <c r="M31" s="18">
+      <c r="N31" s="18">
         <v>1.8459</v>
       </c>
-      <c r="N31" s="4">
+      <c r="O31" s="4">
         <v>369180</v>
       </c>
-      <c r="O31" s="3">
+      <c r="P31" s="3">
         <v>1542454.59</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>666684.18</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>2.3136</v>
       </c>
-      <c r="R31" s="3">
+      <c r="S31" s="3">
         <v>2533555.41</v>
       </c>
-      <c r="S31" s="14">
+      <c r="T31" s="14">
         <v>1748728.62</v>
       </c>
-      <c r="T31" s="1">
+      <c r="U31" s="1">
         <v>1.4488</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:21">
       <c r="A32">
         <v>20170407</v>
       </c>
       <c r="B32" s="3">
-        <f>SUM(C32:G32)</f>
+        <f>SUM(C32:H32)</f>
         <v>4607171</v>
       </c>
       <c r="C32" s="3">
@@ -2610,196 +2638,284 @@
       <c r="F32" s="9">
         <v>349038</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="9"/>
+      <c r="H32" s="9">
         <v>921598</v>
       </c>
-      <c r="L32" s="18">
+      <c r="M32" s="18">
         <v>3.644</v>
       </c>
-      <c r="M32" s="18">
+      <c r="N32" s="18">
         <v>1.9132</v>
       </c>
-      <c r="N32" s="4">
+      <c r="O32" s="4">
         <v>382640</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1626348</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>666684.18</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>2.4395</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2598183.33</v>
       </c>
-      <c r="S32" s="14">
+      <c r="T32" s="14">
         <v>1748728.62</v>
       </c>
-      <c r="T32" s="1">
+      <c r="U32" s="1">
         <v>1.4858</v>
       </c>
     </row>
-    <row r="33" spans="2:14">
-      <c r="B33" s="10"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-    </row>
-    <row r="34" spans="2:14">
-      <c r="B34" s="10"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-    </row>
-    <row r="35" spans="2:14">
+    <row r="33" spans="1:21">
+      <c r="A33">
+        <v>20170414</v>
+      </c>
+      <c r="B33" s="3">
+        <f>SUM(C33:H33)</f>
+        <v>4821909</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1111843</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1673095</v>
+      </c>
+      <c r="E33" s="9">
+        <v>673172</v>
+      </c>
+      <c r="F33" s="9">
+        <v>365585</v>
+      </c>
+      <c r="H33" s="9">
+        <v>998214</v>
+      </c>
+      <c r="M33" s="18">
+        <v>4.6609</v>
+      </c>
+      <c r="N33" s="18">
+        <v>2.0024</v>
+      </c>
+      <c r="O33" s="4">
+        <v>400480</v>
+      </c>
+      <c r="P33" s="3">
+        <v>1738396</v>
+      </c>
+      <c r="Q33">
+        <v>666684.18</v>
+      </c>
+      <c r="R33">
+        <v>2.6075</v>
+      </c>
+      <c r="S33" s="3">
+        <v>2683033</v>
+      </c>
+      <c r="T33" s="14">
+        <v>1748728.62</v>
+      </c>
+      <c r="U33" s="1">
+        <v>1.5343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34">
+        <v>20170421</v>
+      </c>
+      <c r="B34" s="3">
+        <f>SUM(C34:H34)</f>
+        <v>5071577</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1123527</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1125342</v>
+      </c>
+      <c r="E34" s="9">
+        <v>807400</v>
+      </c>
+      <c r="F34" s="9">
+        <v>417089</v>
+      </c>
+      <c r="G34" s="9">
+        <v>599975</v>
+      </c>
+      <c r="H34" s="9">
+        <v>998244</v>
+      </c>
+      <c r="M34" s="18">
+        <v>5.1778</v>
+      </c>
+      <c r="N34" s="18">
+        <v>2.106</v>
+      </c>
+      <c r="O34" s="4">
+        <v>421200</v>
+      </c>
+      <c r="P34" s="3">
+        <v>1870057</v>
+      </c>
+      <c r="Q34">
+        <v>666684.18</v>
+      </c>
+      <c r="R34">
+        <v>2.805</v>
+      </c>
+      <c r="S34" s="3">
+        <v>2780320</v>
+      </c>
+      <c r="T34" s="14">
+        <v>1748728.62</v>
+      </c>
+      <c r="U34" s="1">
+        <v>1.5899</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15">
       <c r="B35" s="10"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="10"/>
+      <c r="I35" s="3"/>
+      <c r="M35" s="18"/>
       <c r="N35" s="10"/>
-    </row>
-    <row r="36" spans="2:14">
+      <c r="O35" s="10"/>
+    </row>
+    <row r="36" spans="2:15">
       <c r="B36" s="10"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="10"/>
+      <c r="I36" s="3"/>
+      <c r="M36" s="18"/>
       <c r="N36" s="10"/>
-    </row>
-    <row r="37" spans="2:14">
+      <c r="O36" s="10"/>
+    </row>
+    <row r="37" spans="2:15">
       <c r="B37" s="10"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="L37" s="10"/>
+      <c r="I37" s="3"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
-    </row>
-    <row r="38" spans="2:14">
+      <c r="O37" s="10"/>
+    </row>
+    <row r="38" spans="2:15">
       <c r="B38" s="10"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="L38" s="10"/>
+      <c r="I38" s="3"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
-    </row>
-    <row r="39" spans="2:14">
+      <c r="O38" s="10"/>
+    </row>
+    <row r="39" spans="2:15">
       <c r="B39" s="10"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="L39" s="10"/>
+      <c r="I39" s="3"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
-    </row>
-    <row r="40" spans="2:14">
+      <c r="O39" s="10"/>
+    </row>
+    <row r="40" spans="2:15">
       <c r="B40" s="10"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="L40" s="10"/>
+      <c r="I40" s="3"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
-    </row>
-    <row r="41" spans="2:14">
+      <c r="O40" s="10"/>
+    </row>
+    <row r="41" spans="2:15">
       <c r="B41" s="10"/>
-      <c r="H41" s="3"/>
-      <c r="L41" s="10"/>
+      <c r="I41" s="3"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
-    </row>
-    <row r="42" spans="2:14">
+      <c r="O41" s="10"/>
+    </row>
+    <row r="42" spans="2:15">
       <c r="B42" s="10"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="L42" s="10"/>
+      <c r="I42" s="3"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
-    </row>
-    <row r="43" spans="2:14">
+      <c r="O42" s="10"/>
+    </row>
+    <row r="43" spans="2:15">
       <c r="B43" s="10"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="L43" s="10"/>
+      <c r="I43" s="3"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
-    </row>
-    <row r="44" spans="2:14">
+      <c r="O43" s="10"/>
+    </row>
+    <row r="44" spans="2:15">
       <c r="B44" s="10"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="L44" s="10"/>
+      <c r="I44" s="3"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
-    </row>
-    <row r="45" spans="2:14">
+      <c r="O44" s="10"/>
+    </row>
+    <row r="45" spans="2:15">
       <c r="B45" s="10"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="L45" s="10"/>
+      <c r="I45" s="3"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
-    </row>
-    <row r="46" spans="2:14">
+      <c r="O45" s="10"/>
+    </row>
+    <row r="46" spans="2:15">
       <c r="B46" s="10"/>
-      <c r="H46" s="3"/>
-      <c r="L46" s="10"/>
+      <c r="I46" s="3"/>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
-    </row>
-    <row r="47" spans="2:14">
+      <c r="O46" s="10"/>
+    </row>
+    <row r="47" spans="2:15">
       <c r="B47" s="10"/>
-      <c r="H47" s="3"/>
-      <c r="L47" s="10"/>
+      <c r="I47" s="3"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
-    </row>
-    <row r="48" spans="2:14">
+      <c r="O47" s="10"/>
+    </row>
+    <row r="48" spans="2:15">
       <c r="B48" s="10"/>
-      <c r="H48" s="3"/>
-      <c r="L48" s="10"/>
+      <c r="I48" s="3"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
-    </row>
-    <row r="49" spans="2:14">
+      <c r="O48" s="10"/>
+    </row>
+    <row r="49" spans="2:15">
       <c r="B49" s="10"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="L49" s="10"/>
+      <c r="I49" s="3"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
-    </row>
-    <row r="50" spans="12:14">
-      <c r="L50" s="10"/>
+      <c r="O49" s="10"/>
+    </row>
+    <row r="50" spans="13:15">
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
-    </row>
-    <row r="51" spans="9:19">
-      <c r="I51" s="19"/>
+      <c r="O50" s="10"/>
+    </row>
+    <row r="51" spans="10:20">
       <c r="J51" s="19"/>
       <c r="K51" s="19"/>
-      <c r="L51" s="10"/>
+      <c r="L51" s="19"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
-      <c r="R51" s="19"/>
+      <c r="O51" s="10"/>
       <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExplorerFund/NetValue/fund record.xlsx
+++ b/ExplorerFund/NetValue/fund record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="9405"/>
+    <workbookView windowWidth="20370" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,17 +123,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="178" formatCode="#,##0.0000_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
-    <numFmt numFmtId="182" formatCode="0.0000_ "/>
+    <numFmt numFmtId="180" formatCode="0.0000_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
+    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -161,6 +161,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,29 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -227,32 +227,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,19 +267,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,187 +312,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,50 +531,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -603,6 +559,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -614,7 +614,7 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,10 +623,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,121 +635,121 @@
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -757,70 +757,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1138,8 +1138,8 @@
   <sheetPr/>
   <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2481,7 +2481,7 @@
         <v>201703017</v>
       </c>
       <c r="B29" s="3">
-        <f>SUM(C29:H29)</f>
+        <f t="shared" ref="B29:B34" si="1">SUM(C29:H29)</f>
         <v>4231191</v>
       </c>
       <c r="C29" s="3">
@@ -2519,7 +2519,7 @@
         <v>20170324</v>
       </c>
       <c r="B30" s="3">
-        <f>SUM(C30:H30)</f>
+        <f t="shared" si="1"/>
         <v>4330508</v>
       </c>
       <c r="C30" s="3">
@@ -2571,7 +2571,7 @@
         <v>20170331</v>
       </c>
       <c r="B31" s="3">
-        <f>SUM(C31:H31)</f>
+        <f t="shared" si="1"/>
         <v>4445190</v>
       </c>
       <c r="C31" s="3">
@@ -2623,7 +2623,7 @@
         <v>20170407</v>
       </c>
       <c r="B32" s="3">
-        <f>SUM(C32:H32)</f>
+        <f t="shared" si="1"/>
         <v>4607171</v>
       </c>
       <c r="C32" s="3">
@@ -2675,7 +2675,7 @@
         <v>20170414</v>
       </c>
       <c r="B33" s="3">
-        <f>SUM(C33:H33)</f>
+        <f t="shared" si="1"/>
         <v>4821909</v>
       </c>
       <c r="C33" s="3">
@@ -2726,7 +2726,7 @@
         <v>20170421</v>
       </c>
       <c r="B34" s="3">
-        <f>SUM(C34:H34)</f>
+        <f t="shared" si="1"/>
         <v>5071577</v>
       </c>
       <c r="C34" s="3">
@@ -2775,14 +2775,59 @@
         <v>1.5899</v>
       </c>
     </row>
-    <row r="35" spans="2:15">
-      <c r="B35" s="10"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
+    <row r="35" spans="1:21">
+      <c r="A35">
+        <v>20170428</v>
+      </c>
+      <c r="B35" s="3">
+        <f>SUM(C35:H35)</f>
+        <v>5106178</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1122370</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1164701</v>
+      </c>
+      <c r="E35" s="9">
+        <v>844724</v>
+      </c>
+      <c r="F35" s="9">
+        <v>402437</v>
+      </c>
+      <c r="G35" s="9">
+        <v>599975</v>
+      </c>
+      <c r="H35" s="9">
+        <v>971971</v>
+      </c>
+      <c r="M35" s="18">
+        <v>0.6822</v>
+      </c>
+      <c r="N35" s="18">
+        <v>2.1203</v>
+      </c>
+      <c r="O35" s="4">
+        <v>424060</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1888524</v>
+      </c>
+      <c r="Q35">
+        <v>666684.18</v>
+      </c>
+      <c r="R35">
+        <v>2.8327</v>
+      </c>
+      <c r="S35" s="3">
+        <v>2793594</v>
+      </c>
+      <c r="T35" s="14">
+        <v>1748728.62</v>
+      </c>
+      <c r="U35" s="1">
+        <v>1.5975</v>
+      </c>
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="10"/>

--- a/ExplorerFund/NetValue/fund record.xlsx
+++ b/ExplorerFund/NetValue/fund record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="9000"/>
+    <workbookView windowWidth="20400" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <t>上期顾85</t>
   </si>
   <si>
-    <t>上期09</t>
+    <t>上期109</t>
   </si>
   <si>
     <t>郑商日盘权益</t>
@@ -123,17 +123,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="180" formatCode="0.0000_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
-    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.0000_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="182" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -161,29 +161,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,6 +197,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -227,19 +227,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,32 +280,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,7 +312,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,19 +354,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,13 +408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,97 +426,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,7 +462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,7 +480,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,6 +531,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -559,50 +603,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -614,7 +614,7 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,133 +623,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -757,7 +757,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -766,13 +766,13 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -781,46 +781,46 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -876,6 +876,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1129,17 +1134,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView tabSelected="1" topLeftCell="M22" workbookViewId="0">
+      <selection activeCell="U49" sqref="U49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2481,7 +2485,7 @@
         <v>201703017</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" ref="B29:B34" si="1">SUM(C29:H29)</f>
+        <f t="shared" ref="B29:B42" si="1">SUM(C29:H29)</f>
         <v>4231191</v>
       </c>
       <c r="C29" s="3">
@@ -2780,7 +2784,7 @@
         <v>20170428</v>
       </c>
       <c r="B35" s="3">
-        <f>SUM(C35:H35)</f>
+        <f t="shared" si="1"/>
         <v>5106178</v>
       </c>
       <c r="C35" s="3">
@@ -2829,66 +2833,342 @@
         <v>1.5975</v>
       </c>
     </row>
-    <row r="36" spans="2:15">
-      <c r="B36" s="10"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="10"/>
+    <row r="36" spans="1:21">
+      <c r="A36">
+        <v>20170505</v>
+      </c>
+      <c r="B36" s="3">
+        <f t="shared" si="1"/>
+        <v>5012006</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1071144</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1159614</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1238581</v>
+      </c>
+      <c r="F36" s="9">
+        <v>399541</v>
+      </c>
+      <c r="G36" s="9">
+        <v>199975</v>
+      </c>
+      <c r="H36" s="9">
+        <v>943151</v>
+      </c>
+      <c r="M36" s="18">
+        <v>-1.8443</v>
+      </c>
+      <c r="N36" s="18">
+        <v>2.0812</v>
+      </c>
       <c r="O36" s="10"/>
-    </row>
-    <row r="37" spans="2:15">
-      <c r="B37" s="10"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
+      <c r="R36">
+        <v>2.7804</v>
+      </c>
+      <c r="U36" s="1">
+        <v>1.568</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37">
+        <v>20170505</v>
+      </c>
+      <c r="B37" s="3">
+        <f t="shared" si="1"/>
+        <v>5094463</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1090948</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1182876</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1251553</v>
+      </c>
+      <c r="F37" s="9">
+        <v>396282</v>
+      </c>
+      <c r="G37" s="9">
+        <v>199975</v>
+      </c>
+      <c r="H37" s="9">
+        <v>972829</v>
+      </c>
+      <c r="M37" s="18">
+        <v>1.6452</v>
+      </c>
+      <c r="N37" s="18">
+        <v>2.1154</v>
+      </c>
       <c r="O37" s="10"/>
-    </row>
-    <row r="38" spans="2:15">
-      <c r="B38" s="10"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-    </row>
-    <row r="39" spans="2:15">
-      <c r="B39" s="10"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-    </row>
-    <row r="40" spans="2:15">
-      <c r="B40" s="10"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-    </row>
-    <row r="41" spans="2:15">
-      <c r="B41" s="10"/>
-      <c r="I41" s="3"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-    </row>
-    <row r="42" spans="2:15">
-      <c r="B42" s="10"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
+      <c r="R37">
+        <v>2.8261</v>
+      </c>
+      <c r="U37" s="1">
+        <v>1.5937</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38">
+        <v>20170526</v>
+      </c>
+      <c r="B38" s="3">
+        <f t="shared" si="1"/>
+        <v>5144745</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1083186</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1150995</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1213800</v>
+      </c>
+      <c r="F38" s="9">
+        <v>392781</v>
+      </c>
+      <c r="G38" s="9">
+        <v>199975</v>
+      </c>
+      <c r="H38" s="9">
+        <v>1104008</v>
+      </c>
+      <c r="M38" s="18">
+        <v>0.987</v>
+      </c>
+      <c r="N38" s="18">
+        <v>2.1363</v>
+      </c>
+      <c r="O38" s="4">
+        <v>427260</v>
+      </c>
+      <c r="P38" s="3">
+        <v>1904590</v>
+      </c>
+      <c r="Q38">
+        <v>666684.18</v>
+      </c>
+      <c r="R38">
+        <v>2.8568</v>
+      </c>
+      <c r="S38" s="3">
+        <v>2812895</v>
+      </c>
+      <c r="T38" s="14">
+        <v>1748728.62</v>
+      </c>
+      <c r="U38" s="1">
+        <v>1.6085</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39">
+        <v>20170609</v>
+      </c>
+      <c r="B39" s="3">
+        <f t="shared" si="1"/>
+        <v>5328915</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1088532</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1157785</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1283456</v>
+      </c>
+      <c r="F39" s="9">
+        <v>393042</v>
+      </c>
+      <c r="G39" s="9">
+        <v>210678</v>
+      </c>
+      <c r="H39" s="9">
+        <v>1195422</v>
+      </c>
+      <c r="M39" s="18">
+        <v>3.5798</v>
+      </c>
+      <c r="N39" s="18">
+        <v>2.2127</v>
+      </c>
+      <c r="O39" s="4">
+        <v>442540</v>
+      </c>
+      <c r="P39" s="3">
+        <v>2003071</v>
+      </c>
+      <c r="Q39">
+        <v>666684.18</v>
+      </c>
+      <c r="R39">
+        <v>3.0045</v>
+      </c>
+      <c r="S39" s="3">
+        <v>2883304</v>
+      </c>
+      <c r="T39" s="14">
+        <v>1748728.62</v>
+      </c>
+      <c r="U39" s="1">
+        <v>1.6488</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40">
+        <v>20170616</v>
+      </c>
+      <c r="B40" s="3">
+        <f t="shared" si="1"/>
+        <v>5336864</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1060387</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1172583</v>
+      </c>
+      <c r="E40" s="9">
+        <v>1305794</v>
+      </c>
+      <c r="F40" s="9">
+        <v>402725</v>
+      </c>
+      <c r="G40" s="9">
+        <v>209681</v>
+      </c>
+      <c r="H40" s="9">
+        <v>1185694</v>
+      </c>
+      <c r="M40" s="18">
+        <v>0.1492</v>
+      </c>
+      <c r="N40" s="18">
+        <v>2.216</v>
+      </c>
+      <c r="O40" s="4">
+        <v>443200</v>
+      </c>
+      <c r="P40" s="3">
+        <v>2007349</v>
+      </c>
+      <c r="Q40">
+        <v>666684.18</v>
+      </c>
+      <c r="R40">
+        <v>3.0109</v>
+      </c>
+      <c r="S40" s="3">
+        <v>2886315</v>
+      </c>
+      <c r="T40" s="14">
+        <v>1748728.62</v>
+      </c>
+      <c r="U40">
+        <v>1.6505</v>
+      </c>
+      <c r="W40" s="3"/>
+      <c r="X40" s="14"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41">
+        <v>20170623</v>
+      </c>
+      <c r="B41" s="3">
+        <f t="shared" si="1"/>
+        <v>5339509</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1062522</v>
+      </c>
+      <c r="D41" s="3">
+        <v>168237</v>
+      </c>
+      <c r="E41" s="9">
+        <v>1299004</v>
+      </c>
+      <c r="F41" s="9">
+        <v>394191</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1214931</v>
+      </c>
+      <c r="H41" s="9">
+        <v>1200624</v>
+      </c>
+      <c r="M41" s="18">
+        <v>0.049</v>
+      </c>
+      <c r="N41" s="18"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="3"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="14"/>
+      <c r="U41"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42">
+        <v>20170630</v>
+      </c>
+      <c r="B42" s="3">
+        <f t="shared" si="1"/>
+        <v>5311702</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1056367</v>
+      </c>
+      <c r="D42" s="3">
+        <v>168237</v>
+      </c>
+      <c r="E42" s="9">
+        <v>1267231</v>
+      </c>
+      <c r="F42" s="9">
+        <v>393210</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1204791</v>
+      </c>
+      <c r="H42" s="9">
+        <v>1221866</v>
+      </c>
+      <c r="I42"/>
+      <c r="M42" s="18">
+        <v>-0.4714</v>
+      </c>
+      <c r="N42" s="18">
+        <v>2.2055</v>
+      </c>
+      <c r="O42" s="4">
+        <v>443200</v>
+      </c>
+      <c r="P42" s="3">
+        <v>2007349</v>
+      </c>
+      <c r="Q42">
+        <v>666684.18</v>
+      </c>
+      <c r="R42">
+        <v>2.9967</v>
+      </c>
+      <c r="S42" s="3">
+        <v>2886315</v>
+      </c>
+      <c r="T42" s="14">
+        <v>1748728.62</v>
+      </c>
+      <c r="U42">
+        <v>1.6427</v>
+      </c>
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="10"/>

--- a/ExplorerFund/NetValue/fund record.xlsx
+++ b/ExplorerFund/NetValue/fund record.xlsx
@@ -123,17 +123,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.0000_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="182" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="180" formatCode="0.0000_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
+    <numFmt numFmtId="182" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -166,40 +166,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,7 +190,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,16 +203,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,9 +234,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,6 +256,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -289,15 +288,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,79 +312,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,7 +342,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,67 +384,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +412,90 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -503,30 +503,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -548,19 +524,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,17 +578,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,145 +611,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -757,70 +757,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1142,8 +1142,8 @@
   <sheetPr/>
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M22" workbookViewId="0">
-      <selection activeCell="U49" sqref="U49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2485,7 +2485,7 @@
         <v>201703017</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" ref="B29:B42" si="1">SUM(C29:H29)</f>
+        <f t="shared" ref="B29:B44" si="1">SUM(C29:H29)</f>
         <v>4231191</v>
       </c>
       <c r="C29" s="3">
@@ -3109,8 +3109,6 @@
       <c r="N41" s="18"/>
       <c r="O41" s="4"/>
       <c r="P41" s="3"/>
-      <c r="Q41"/>
-      <c r="R41"/>
       <c r="S41" s="3"/>
       <c r="T41" s="14"/>
       <c r="U41"/>
@@ -3141,7 +3139,6 @@
       <c r="H42" s="9">
         <v>1221866</v>
       </c>
-      <c r="I42"/>
       <c r="M42" s="18">
         <v>-0.4714</v>
       </c>
@@ -3149,10 +3146,11 @@
         <v>2.2055</v>
       </c>
       <c r="O42" s="4">
-        <v>443200</v>
+        <v>441100</v>
       </c>
       <c r="P42" s="3">
-        <v>2007349</v>
+        <f t="shared" ref="P42:P44" si="2">Q42*R42</f>
+        <v>1997852.482206</v>
       </c>
       <c r="Q42">
         <v>666684.18</v>
@@ -3161,7 +3159,8 @@
         <v>2.9967</v>
       </c>
       <c r="S42" s="3">
-        <v>2886315</v>
+        <f t="shared" ref="S42:S44" si="3">T42*U42</f>
+        <v>2872636.504074</v>
       </c>
       <c r="T42" s="14">
         <v>1748728.62</v>
@@ -3170,23 +3169,118 @@
         <v>1.6427</v>
       </c>
     </row>
-    <row r="43" spans="2:15">
-      <c r="B43" s="10"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-    </row>
-    <row r="44" spans="2:15">
-      <c r="B44" s="10"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
+    <row r="43" spans="1:21">
+      <c r="A43">
+        <v>20170707</v>
+      </c>
+      <c r="B43" s="3">
+        <f t="shared" si="1"/>
+        <v>5286405</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1049525</v>
+      </c>
+      <c r="D43" s="3">
+        <v>168237</v>
+      </c>
+      <c r="E43" s="9">
+        <v>1215759</v>
+      </c>
+      <c r="F43" s="9">
+        <v>385665</v>
+      </c>
+      <c r="G43" s="9">
+        <v>1224413</v>
+      </c>
+      <c r="H43" s="9">
+        <v>1242806</v>
+      </c>
+      <c r="M43" s="18">
+        <v>-0.4763</v>
+      </c>
+      <c r="N43" s="18">
+        <v>2.195</v>
+      </c>
+      <c r="O43" s="4">
+        <v>439000</v>
+      </c>
+      <c r="P43" s="3">
+        <f t="shared" si="2"/>
+        <v>1988318.898432</v>
+      </c>
+      <c r="Q43">
+        <v>666684.18</v>
+      </c>
+      <c r="R43">
+        <v>2.9824</v>
+      </c>
+      <c r="S43" s="3">
+        <f t="shared" si="3"/>
+        <v>2858996.420838</v>
+      </c>
+      <c r="T43" s="14">
+        <v>1748728.62</v>
+      </c>
+      <c r="U43">
+        <v>1.6349</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44">
+        <v>20170714</v>
+      </c>
+      <c r="B44" s="3">
+        <f t="shared" si="1"/>
+        <v>5299008</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1018647</v>
+      </c>
+      <c r="D44" s="3">
+        <v>168237</v>
+      </c>
+      <c r="E44" s="9">
+        <v>1222601</v>
+      </c>
+      <c r="F44" s="9">
+        <v>385429</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1248767</v>
+      </c>
+      <c r="H44" s="9">
+        <v>1255327</v>
+      </c>
+      <c r="I44"/>
+      <c r="M44" s="18">
+        <v>0.2384</v>
+      </c>
+      <c r="N44" s="18">
+        <v>2.2</v>
+      </c>
+      <c r="O44" s="4">
+        <v>440000</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="2"/>
+        <v>1993052.35611</v>
+      </c>
+      <c r="Q44">
+        <v>666684.18</v>
+      </c>
+      <c r="R44">
+        <v>2.9895</v>
+      </c>
+      <c r="S44" s="3">
+        <f t="shared" si="3"/>
+        <v>2865816.462456</v>
+      </c>
+      <c r="T44" s="14">
+        <v>1748728.62</v>
+      </c>
+      <c r="U44">
+        <v>1.6388</v>
+      </c>
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="10"/>
